--- a/new_data/double_hit/20260127_212600_phrase35/20260127_212600_phrase35_keypoints.xlsx
+++ b/new_data/double_hit/20260127_212600_phrase35/20260127_212600_phrase35_keypoints.xlsx
@@ -491,1221 +491,1221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.266260515253208</v>
+        <v>4.194194565083063</v>
       </c>
       <c r="B2" t="n">
-        <v>8.197955699894864</v>
+        <v>4.159530549617621</v>
       </c>
       <c r="C2" t="n">
-        <v>8.247295671412568</v>
+        <v>4.184571427746753</v>
       </c>
       <c r="D2" t="n">
-        <v>7.940632990810245</v>
+        <v>4.028950230198917</v>
       </c>
       <c r="E2" t="n">
-        <v>8.0650478993895</v>
+        <v>4.092086250934555</v>
       </c>
       <c r="F2" t="n">
-        <v>7.828335558154049</v>
+        <v>3.971977659847024</v>
       </c>
       <c r="G2" t="n">
-        <v>7.968918279044165</v>
+        <v>4.043300623993903</v>
       </c>
       <c r="H2" t="n">
-        <v>7.881660596002448</v>
+        <v>3.999091251104319</v>
       </c>
       <c r="I2" t="n">
-        <v>7.918382488223321</v>
+        <v>4.017647836712012</v>
       </c>
       <c r="J2" t="n">
-        <v>7.95737805390139</v>
+        <v>4.03750115929288</v>
       </c>
       <c r="K2" t="n">
-        <v>8.207248599126428</v>
+        <v>4.164257806076297</v>
       </c>
       <c r="L2" t="n">
-        <v>7.698948747885273</v>
+        <v>3.906367569483325</v>
       </c>
       <c r="M2" t="n">
-        <v>7.928970010055481</v>
+        <v>4.023052021468775</v>
       </c>
       <c r="N2" t="n">
-        <v>7.498195417652766</v>
+        <v>3.804583743405893</v>
       </c>
       <c r="O2" t="n">
-        <v>8.654089805311097</v>
+        <v>4.390910293100382</v>
       </c>
       <c r="P2" t="n">
-        <v>6.932444742384623</v>
+        <v>3.517428814859731</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.536513282531471</v>
+        <v>4.331143722466082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.578008871039092</v>
+        <v>4.352381284421314</v>
       </c>
       <c r="B3" t="n">
-        <v>8.515779560262452</v>
+        <v>4.320815400847968</v>
       </c>
       <c r="C3" t="n">
-        <v>8.548776268765328</v>
+        <v>4.337553273353172</v>
       </c>
       <c r="D3" t="n">
-        <v>8.218260076925851</v>
+        <v>4.169777445390184</v>
       </c>
       <c r="E3" t="n">
-        <v>8.351433748122551</v>
+        <v>4.237464502470993</v>
       </c>
       <c r="F3" t="n">
-        <v>8.104027896063123</v>
+        <v>4.111879719442388</v>
       </c>
       <c r="G3" t="n">
-        <v>8.168215308552968</v>
+        <v>4.144510823219097</v>
       </c>
       <c r="H3" t="n">
-        <v>7.965830825700654</v>
+        <v>4.041807310445835</v>
       </c>
       <c r="I3" t="n">
-        <v>8.040485998449986</v>
+        <v>4.079723498488798</v>
       </c>
       <c r="J3" t="n">
-        <v>8.14779176875717</v>
+        <v>4.1342426595018</v>
       </c>
       <c r="K3" t="n">
-        <v>8.333252743775056</v>
+        <v>4.228255786229203</v>
       </c>
       <c r="L3" t="n">
-        <v>7.934102991060247</v>
+        <v>4.025655217904146</v>
       </c>
       <c r="M3" t="n">
-        <v>8.066397013505663</v>
+        <v>4.092856454361687</v>
       </c>
       <c r="N3" t="n">
-        <v>7.962791276986212</v>
+        <v>4.040104051900469</v>
       </c>
       <c r="O3" t="n">
-        <v>8.809509787439676</v>
+        <v>4.469917669507229</v>
       </c>
       <c r="P3" t="n">
-        <v>7.210881416731501</v>
+        <v>3.658596924822297</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.566368046175272</v>
+        <v>4.346414410612462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.67136660978491</v>
+        <v>4.399753808348321</v>
       </c>
       <c r="B4" t="n">
-        <v>8.605191155188692</v>
+        <v>4.366184180553305</v>
       </c>
       <c r="C4" t="n">
-        <v>8.645269365483728</v>
+        <v>4.386499625190453</v>
       </c>
       <c r="D4" t="n">
-        <v>8.273321058770147</v>
+        <v>4.197760895587076</v>
       </c>
       <c r="E4" t="n">
-        <v>8.405436037664415</v>
+        <v>4.264848804281966</v>
       </c>
       <c r="F4" t="n">
-        <v>8.083843280604809</v>
+        <v>4.101679309320456</v>
       </c>
       <c r="G4" t="n">
-        <v>8.258311340867035</v>
+        <v>4.190301012057938</v>
       </c>
       <c r="H4" t="n">
-        <v>8.004326386812814</v>
+        <v>4.061166912881106</v>
       </c>
       <c r="I4" t="n">
-        <v>8.105741684168073</v>
+        <v>4.112803355899382</v>
       </c>
       <c r="J4" t="n">
-        <v>8.274094718529616</v>
+        <v>4.198254919560456</v>
       </c>
       <c r="K4" t="n">
-        <v>8.30098598205762</v>
+        <v>4.211688361109649</v>
       </c>
       <c r="L4" t="n">
-        <v>7.981663305608031</v>
+        <v>4.049805880632293</v>
       </c>
       <c r="M4" t="n">
-        <v>8.172815949367202</v>
+        <v>4.146832978956204</v>
       </c>
       <c r="N4" t="n">
-        <v>8.147903147019756</v>
+        <v>4.134266965724352</v>
       </c>
       <c r="O4" t="n">
-        <v>8.909572377831594</v>
+        <v>4.52063199520742</v>
       </c>
       <c r="P4" t="n">
-        <v>7.380221885259731</v>
+        <v>3.744749419176227</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.586267030282762</v>
+        <v>4.35649967000505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.732023451112353</v>
+        <v>4.430467151165639</v>
       </c>
       <c r="B5" t="n">
-        <v>8.663668335893487</v>
+        <v>4.395808300772489</v>
       </c>
       <c r="C5" t="n">
-        <v>8.707490891758143</v>
+        <v>4.418031176224443</v>
       </c>
       <c r="D5" t="n">
-        <v>8.347859463986124</v>
+        <v>4.235643662574031</v>
       </c>
       <c r="E5" t="n">
-        <v>8.443274706550463</v>
+        <v>4.284046466509482</v>
       </c>
       <c r="F5" t="n">
-        <v>8.172982417953218</v>
+        <v>4.146984892847157</v>
       </c>
       <c r="G5" t="n">
-        <v>8.316348397792256</v>
+        <v>4.219661409762427</v>
       </c>
       <c r="H5" t="n">
-        <v>8.059110120616371</v>
+        <v>4.089125145372099</v>
       </c>
       <c r="I5" t="n">
-        <v>8.191714325535008</v>
+        <v>4.156407807675191</v>
       </c>
       <c r="J5" t="n">
-        <v>8.259012544875036</v>
+        <v>4.190497892460613</v>
       </c>
       <c r="K5" t="n">
-        <v>8.309501029874674</v>
+        <v>4.216193823287534</v>
       </c>
       <c r="L5" t="n">
-        <v>8.061002952272469</v>
+        <v>4.09009921724089</v>
       </c>
       <c r="M5" t="n">
-        <v>8.210562401842292</v>
+        <v>4.16593979667693</v>
       </c>
       <c r="N5" t="n">
-        <v>8.339222259364943</v>
+        <v>4.231286772181498</v>
       </c>
       <c r="O5" t="n">
-        <v>8.975562201990169</v>
+        <v>4.554059431600505</v>
       </c>
       <c r="P5" t="n">
-        <v>7.656312430397942</v>
+        <v>3.884805215629235</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.636260301179396</v>
+        <v>4.382002974018243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.771742376689367</v>
+        <v>4.450596349372478</v>
       </c>
       <c r="B6" t="n">
-        <v>8.723805411995528</v>
+        <v>4.426276758397591</v>
       </c>
       <c r="C6" t="n">
-        <v>8.744015776191969</v>
+        <v>4.436534895798085</v>
       </c>
       <c r="D6" t="n">
-        <v>8.368923129387857</v>
+        <v>4.246227199528946</v>
       </c>
       <c r="E6" t="n">
-        <v>8.546155885555242</v>
+        <v>4.336189694267977</v>
       </c>
       <c r="F6" t="n">
-        <v>8.185584928245602</v>
+        <v>4.153294788221782</v>
       </c>
       <c r="G6" t="n">
-        <v>8.390794586597274</v>
+        <v>4.257395301136247</v>
       </c>
       <c r="H6" t="n">
-        <v>8.124778983760182</v>
+        <v>4.122319545856461</v>
       </c>
       <c r="I6" t="n">
-        <v>8.293127227658815</v>
+        <v>4.20784372435741</v>
       </c>
       <c r="J6" t="n">
-        <v>8.391398783731407</v>
+        <v>4.257521997321303</v>
       </c>
       <c r="K6" t="n">
-        <v>8.479128327369457</v>
+        <v>4.302206253034005</v>
       </c>
       <c r="L6" t="n">
-        <v>8.072261737719462</v>
+        <v>4.095796899634974</v>
       </c>
       <c r="M6" t="n">
-        <v>8.256522701779163</v>
+        <v>4.189265263149419</v>
       </c>
       <c r="N6" t="n">
-        <v>8.479560067838943</v>
+        <v>4.302485166937795</v>
       </c>
       <c r="O6" t="n">
-        <v>9.033948962707594</v>
+        <v>4.583682944164125</v>
       </c>
       <c r="P6" t="n">
-        <v>7.895263714234516</v>
+        <v>4.006065617837972</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.776563977605186</v>
+        <v>4.453120550584553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.860373126161781</v>
+        <v>4.495598408945055</v>
       </c>
       <c r="B7" t="n">
-        <v>8.80057976577331</v>
+        <v>4.465279738416433</v>
       </c>
       <c r="C7" t="n">
-        <v>8.834307019869494</v>
+        <v>4.482392534404508</v>
       </c>
       <c r="D7" t="n">
-        <v>8.525858095410751</v>
+        <v>4.325906642989367</v>
       </c>
       <c r="E7" t="n">
-        <v>8.598984511684913</v>
+        <v>4.363049589327381</v>
       </c>
       <c r="F7" t="n">
-        <v>8.319704715866417</v>
+        <v>4.221388366874781</v>
       </c>
       <c r="G7" t="n">
-        <v>8.421360135174886</v>
+        <v>4.272922116102774</v>
       </c>
       <c r="H7" t="n">
-        <v>8.267120403345</v>
+        <v>4.194689500539788</v>
       </c>
       <c r="I7" t="n">
-        <v>8.307012983202391</v>
+        <v>4.214857588702711</v>
       </c>
       <c r="J7" t="n">
-        <v>8.497323703105671</v>
+        <v>4.311445352053986</v>
       </c>
       <c r="K7" t="n">
-        <v>8.505604617048149</v>
+        <v>4.315693168272814</v>
       </c>
       <c r="L7" t="n">
-        <v>8.200861714455776</v>
+        <v>4.161104377527894</v>
       </c>
       <c r="M7" t="n">
-        <v>8.330494634756395</v>
+        <v>4.226860305226909</v>
       </c>
       <c r="N7" t="n">
-        <v>8.574829201284622</v>
+        <v>4.350800164644275</v>
       </c>
       <c r="O7" t="n">
-        <v>9.142581691239995</v>
+        <v>4.638906681803367</v>
       </c>
       <c r="P7" t="n">
-        <v>7.919262735782468</v>
+        <v>4.018120288912876</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.097351338088567</v>
+        <v>4.615963430680514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.959086602437537</v>
+        <v>4.54572178960944</v>
       </c>
       <c r="B8" t="n">
-        <v>8.915878423440693</v>
+        <v>4.523815502706232</v>
       </c>
       <c r="C8" t="n">
-        <v>8.93940857843163</v>
+        <v>4.535727678551422</v>
       </c>
       <c r="D8" t="n">
-        <v>8.592132353304423</v>
+        <v>4.359533694235164</v>
       </c>
       <c r="E8" t="n">
-        <v>8.769684872870846</v>
+        <v>4.449626531092634</v>
       </c>
       <c r="F8" t="n">
-        <v>8.438026754435931</v>
+        <v>4.281393746145659</v>
       </c>
       <c r="G8" t="n">
-        <v>8.547832547572664</v>
+        <v>4.337054388135282</v>
       </c>
       <c r="H8" t="n">
-        <v>8.422169124598293</v>
+        <v>4.273348082653006</v>
       </c>
       <c r="I8" t="n">
-        <v>8.437104590326349</v>
+        <v>4.280986313090124</v>
       </c>
       <c r="J8" t="n">
-        <v>8.535553393526497</v>
+        <v>4.330783990372305</v>
       </c>
       <c r="K8" t="n">
-        <v>8.682484076576149</v>
+        <v>4.4054314381088</v>
       </c>
       <c r="L8" t="n">
-        <v>8.287393043559231</v>
+        <v>4.204873200133715</v>
       </c>
       <c r="M8" t="n">
-        <v>8.455992786760477</v>
+        <v>4.290384010212259</v>
       </c>
       <c r="N8" t="n">
-        <v>8.488062540690866</v>
+        <v>4.306654899416674</v>
       </c>
       <c r="O8" t="n">
-        <v>9.212674546878347</v>
+        <v>4.674326316962409</v>
       </c>
       <c r="P8" t="n">
-        <v>7.840214109739625</v>
+        <v>3.97790989728874</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.365493906456331</v>
+        <v>4.751851925276899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.051976672242066</v>
+        <v>4.592862796766634</v>
       </c>
       <c r="B9" t="n">
-        <v>8.995119865615539</v>
+        <v>4.564025894330369</v>
       </c>
       <c r="C9" t="n">
-        <v>9.027862080776487</v>
+        <v>4.580630690267097</v>
       </c>
       <c r="D9" t="n">
-        <v>8.619524819014066</v>
+        <v>4.37344414540195</v>
       </c>
       <c r="E9" t="n">
-        <v>8.837147165565433</v>
+        <v>4.483910154175129</v>
       </c>
       <c r="F9" t="n">
-        <v>8.507789666941569</v>
+        <v>4.316779352593128</v>
       </c>
       <c r="G9" t="n">
-        <v>8.652311345956901</v>
+        <v>4.390223034657711</v>
       </c>
       <c r="H9" t="n">
-        <v>8.524905392100138</v>
+        <v>4.325583674057201</v>
       </c>
       <c r="I9" t="n">
-        <v>8.554964349225346</v>
+        <v>4.340634087061699</v>
       </c>
       <c r="J9" t="n">
-        <v>8.63543334752009</v>
+        <v>4.381487985927913</v>
       </c>
       <c r="K9" t="n">
-        <v>8.815533195737267</v>
+        <v>4.472937717659375</v>
       </c>
       <c r="L9" t="n">
-        <v>8.367873419203379</v>
+        <v>4.245731352588875</v>
       </c>
       <c r="M9" t="n">
-        <v>8.591513784781567</v>
+        <v>4.359255995642502</v>
       </c>
       <c r="N9" t="n">
-        <v>8.382075345298812</v>
+        <v>4.253017142798981</v>
       </c>
       <c r="O9" t="n">
-        <v>9.354641112740699</v>
+        <v>4.746365099363458</v>
       </c>
       <c r="P9" t="n">
-        <v>7.861501130474395</v>
+        <v>3.988800907958943</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.61049434732862</v>
+        <v>4.876053076586705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.151156619843384</v>
+        <v>4.643108620027127</v>
       </c>
       <c r="B10" t="n">
-        <v>9.09642677874753</v>
+        <v>4.61535212918332</v>
       </c>
       <c r="C10" t="n">
-        <v>9.123117441641309</v>
+        <v>4.628892821939526</v>
       </c>
       <c r="D10" t="n">
-        <v>8.758298541348955</v>
+        <v>4.443731968295875</v>
       </c>
       <c r="E10" t="n">
-        <v>8.926733013579915</v>
+        <v>4.529329065464481</v>
       </c>
       <c r="F10" t="n">
-        <v>8.602912691268587</v>
+        <v>4.364999859859435</v>
       </c>
       <c r="G10" t="n">
-        <v>8.717146069747043</v>
+        <v>4.422983872897293</v>
       </c>
       <c r="H10" t="n">
-        <v>8.635501611616514</v>
+        <v>4.381496493105806</v>
       </c>
       <c r="I10" t="n">
-        <v>8.653470637980377</v>
+        <v>4.390682726091735</v>
       </c>
       <c r="J10" t="n">
-        <v>8.93547441076932</v>
+        <v>4.533658611356642</v>
       </c>
       <c r="K10" t="n">
-        <v>8.958666838125318</v>
+        <v>4.545574736962997</v>
       </c>
       <c r="L10" t="n">
-        <v>8.470322857738671</v>
+        <v>4.297732692773221</v>
       </c>
       <c r="M10" t="n">
-        <v>8.690472772281304</v>
+        <v>4.409437103585449</v>
       </c>
       <c r="N10" t="n">
-        <v>8.452055625058852</v>
+        <v>4.288655837788778</v>
       </c>
       <c r="O10" t="n">
-        <v>9.471626612159183</v>
+        <v>4.805841514466038</v>
       </c>
       <c r="P10" t="n">
-        <v>7.915132757948838</v>
+        <v>4.016243848531825</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.759741818001631</v>
+        <v>4.951874514872483</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.270703819301344</v>
+        <v>4.70385108549691</v>
       </c>
       <c r="B11" t="n">
-        <v>9.226238742599296</v>
+        <v>4.681276073645727</v>
       </c>
       <c r="C11" t="n">
-        <v>9.244435315951238</v>
+        <v>4.690564392766377</v>
       </c>
       <c r="D11" t="n">
-        <v>8.819155384502762</v>
+        <v>4.474875227424589</v>
       </c>
       <c r="E11" t="n">
-        <v>9.094868680687053</v>
+        <v>4.61456643053931</v>
       </c>
       <c r="F11" t="n">
-        <v>8.660220999024093</v>
+        <v>4.39416489630016</v>
       </c>
       <c r="G11" t="n">
-        <v>8.880574508240271</v>
+        <v>4.505890575057122</v>
       </c>
       <c r="H11" t="n">
-        <v>8.727674309600731</v>
+        <v>4.428361016981467</v>
       </c>
       <c r="I11" t="n">
-        <v>8.776271160559999</v>
+        <v>4.45304823957246</v>
       </c>
       <c r="J11" t="n">
-        <v>9.037529234922655</v>
+        <v>4.585535989805971</v>
       </c>
       <c r="K11" t="n">
-        <v>9.073562498100657</v>
+        <v>4.603854070604867</v>
       </c>
       <c r="L11" t="n">
-        <v>8.508392067652116</v>
+        <v>4.317123589470028</v>
       </c>
       <c r="M11" t="n">
-        <v>8.796221043335875</v>
+        <v>4.463123472648245</v>
       </c>
       <c r="N11" t="n">
-        <v>8.540792962330944</v>
+        <v>4.333460713130897</v>
       </c>
       <c r="O11" t="n">
-        <v>9.585849212096099</v>
+        <v>4.863715845674628</v>
       </c>
       <c r="P11" t="n">
-        <v>7.984940581044228</v>
+        <v>4.051275495613372</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.937264397174884</v>
+        <v>5.04188379908993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.390957612038074</v>
+        <v>4.76484815864793</v>
       </c>
       <c r="B12" t="n">
-        <v>9.346485349641666</v>
+        <v>4.742287426702497</v>
       </c>
       <c r="C12" t="n">
-        <v>9.357195028277953</v>
+        <v>4.747720171270759</v>
       </c>
       <c r="D12" t="n">
-        <v>8.921959916101031</v>
+        <v>4.526937029337534</v>
       </c>
       <c r="E12" t="n">
-        <v>9.266848694276998</v>
+        <v>4.701837618786219</v>
       </c>
       <c r="F12" t="n">
-        <v>8.722810193326616</v>
+        <v>4.425843803808375</v>
       </c>
       <c r="G12" t="n">
-        <v>9.033295064520798</v>
+        <v>4.583421044616123</v>
       </c>
       <c r="H12" t="n">
-        <v>8.733742628488075</v>
+        <v>4.431527510124491</v>
       </c>
       <c r="I12" t="n">
-        <v>8.921551529138215</v>
+        <v>4.526792407313347</v>
       </c>
       <c r="J12" t="n">
-        <v>9.191596510087891</v>
+        <v>4.663838181931013</v>
       </c>
       <c r="K12" t="n">
-        <v>9.216962011180042</v>
+        <v>4.676573427237386</v>
       </c>
       <c r="L12" t="n">
-        <v>8.577444195223938</v>
+        <v>4.352063176733658</v>
       </c>
       <c r="M12" t="n">
-        <v>8.898369880323758</v>
+        <v>4.514947985063523</v>
       </c>
       <c r="N12" t="n">
-        <v>8.790897042622694</v>
+        <v>4.460447357545218</v>
       </c>
       <c r="O12" t="n">
-        <v>9.658843890640318</v>
+        <v>4.900877021679555</v>
       </c>
       <c r="P12" t="n">
-        <v>8.125778394084138</v>
+        <v>4.122926897592492</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.997276322433484</v>
+        <v>5.072464672994336</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.487469271800236</v>
+        <v>4.81382307029671</v>
       </c>
       <c r="B13" t="n">
-        <v>9.414942861005168</v>
+        <v>4.777047451747021</v>
       </c>
       <c r="C13" t="n">
-        <v>9.4434796485417</v>
+        <v>4.791503273782329</v>
       </c>
       <c r="D13" t="n">
-        <v>9.007138538241142</v>
+        <v>4.570145897341302</v>
       </c>
       <c r="E13" t="n">
-        <v>9.372729301869374</v>
+        <v>4.755588703166562</v>
       </c>
       <c r="F13" t="n">
-        <v>8.770659732072403</v>
+        <v>4.450154583777587</v>
       </c>
       <c r="G13" t="n">
-        <v>9.169085526080403</v>
+        <v>4.652288776457418</v>
       </c>
       <c r="H13" t="n">
-        <v>8.776578947801768</v>
+        <v>4.452971371143637</v>
       </c>
       <c r="I13" t="n">
-        <v>9.177933511069487</v>
+        <v>4.656772666862787</v>
       </c>
       <c r="J13" t="n">
-        <v>9.348751238596639</v>
+        <v>4.743354773700333</v>
       </c>
       <c r="K13" t="n">
-        <v>9.440149678013526</v>
+        <v>4.789813383659367</v>
       </c>
       <c r="L13" t="n">
-        <v>8.721907191068661</v>
+        <v>4.425405684146867</v>
       </c>
       <c r="M13" t="n">
-        <v>9.081088315327431</v>
+        <v>4.60760847050588</v>
       </c>
       <c r="N13" t="n">
-        <v>8.983606586826616</v>
+        <v>4.558226429629346</v>
       </c>
       <c r="O13" t="n">
-        <v>9.768688007480307</v>
+        <v>4.956513661274407</v>
       </c>
       <c r="P13" t="n">
-        <v>8.233714110263582</v>
+        <v>4.177718895953644</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.03884736073189</v>
+        <v>5.093486213396633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.629677756039388</v>
+        <v>4.885988852710596</v>
       </c>
       <c r="B14" t="n">
-        <v>9.584142010877644</v>
+        <v>4.862883053724423</v>
       </c>
       <c r="C14" t="n">
-        <v>9.586776765476451</v>
+        <v>4.864225061037103</v>
       </c>
       <c r="D14" t="n">
-        <v>9.152791964118235</v>
+        <v>4.643974833033341</v>
       </c>
       <c r="E14" t="n">
-        <v>9.461701970631768</v>
+        <v>4.80076485605817</v>
       </c>
       <c r="F14" t="n">
-        <v>8.882103863523305</v>
+        <v>4.506746457918751</v>
       </c>
       <c r="G14" t="n">
-        <v>9.255394697466549</v>
+        <v>4.696098311986014</v>
       </c>
       <c r="H14" t="n">
-        <v>8.734019876528812</v>
+        <v>4.431884203940449</v>
       </c>
       <c r="I14" t="n">
-        <v>9.188601871963202</v>
+        <v>4.662189308558609</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0893285103352</v>
+        <v>4.612238198246565</v>
       </c>
       <c r="K14" t="n">
-        <v>9.309343693108575</v>
+        <v>4.72346711858011</v>
       </c>
       <c r="L14" t="n">
-        <v>8.815424811513997</v>
+        <v>4.472908550192312</v>
       </c>
       <c r="M14" t="n">
-        <v>9.128774978334382</v>
+        <v>4.631900109324832</v>
       </c>
       <c r="N14" t="n">
-        <v>9.126916877534361</v>
+        <v>4.630904769511307</v>
       </c>
       <c r="O14" t="n">
-        <v>9.951789080708672</v>
+        <v>5.049522941010393</v>
       </c>
       <c r="P14" t="n">
-        <v>8.396256313119027</v>
+        <v>4.260106964089759</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.05130615713706</v>
+        <v>5.099904879117179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.691054364418598</v>
+        <v>4.917118135761343</v>
       </c>
       <c r="B15" t="n">
-        <v>9.644395255705179</v>
+        <v>4.893459370212101</v>
       </c>
       <c r="C15" t="n">
-        <v>9.646115630696627</v>
+        <v>4.894307049723619</v>
       </c>
       <c r="D15" t="n">
-        <v>9.210369735412254</v>
+        <v>4.673272642214759</v>
       </c>
       <c r="E15" t="n">
-        <v>9.534678086132224</v>
+        <v>4.837767433960943</v>
       </c>
       <c r="F15" t="n">
-        <v>8.952958402763858</v>
+        <v>4.542733339546611</v>
       </c>
       <c r="G15" t="n">
-        <v>9.339545765313126</v>
+        <v>4.73881133304971</v>
       </c>
       <c r="H15" t="n">
-        <v>8.837978310879786</v>
+        <v>4.484476792988384</v>
       </c>
       <c r="I15" t="n">
-        <v>9.314233558120815</v>
+        <v>4.726016841325865</v>
       </c>
       <c r="J15" t="n">
-        <v>9.326878583771499</v>
+        <v>4.732451913746635</v>
       </c>
       <c r="K15" t="n">
-        <v>9.538243986958564</v>
+        <v>4.839624733191735</v>
       </c>
       <c r="L15" t="n">
-        <v>8.909035845986018</v>
+        <v>4.52045486361057</v>
       </c>
       <c r="M15" t="n">
-        <v>9.236642430417403</v>
+        <v>4.686620708157236</v>
       </c>
       <c r="N15" t="n">
-        <v>9.219090773134306</v>
+        <v>4.677741948886596</v>
       </c>
       <c r="O15" t="n">
-        <v>10.08495197336383</v>
+        <v>5.116977569838044</v>
       </c>
       <c r="P15" t="n">
-        <v>8.48351160092929</v>
+        <v>4.304488911159465</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.08011240821211</v>
+        <v>5.114404756180863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.738458390114042</v>
+        <v>4.941156989865749</v>
       </c>
       <c r="B16" t="n">
-        <v>9.692331621591155</v>
+        <v>4.917781999464808</v>
       </c>
       <c r="C16" t="n">
-        <v>9.69348552434386</v>
+        <v>4.918330712438929</v>
       </c>
       <c r="D16" t="n">
-        <v>9.262521708656321</v>
+        <v>4.699677099429085</v>
       </c>
       <c r="E16" t="n">
-        <v>9.593768446089104</v>
+        <v>4.867774073357547</v>
       </c>
       <c r="F16" t="n">
-        <v>9.033361532193632</v>
+        <v>4.583502470461673</v>
       </c>
       <c r="G16" t="n">
-        <v>9.385366543017833</v>
+        <v>4.76201557223722</v>
       </c>
       <c r="H16" t="n">
-        <v>8.870892383897518</v>
+        <v>4.501269354494331</v>
       </c>
       <c r="I16" t="n">
-        <v>9.369481966826344</v>
+        <v>4.75398175802806</v>
       </c>
       <c r="J16" t="n">
-        <v>9.213869767373625</v>
+        <v>4.675088924694993</v>
       </c>
       <c r="K16" t="n">
-        <v>9.625584305485424</v>
+        <v>4.883838967325828</v>
       </c>
       <c r="L16" t="n">
-        <v>8.969078909253513</v>
+        <v>4.550820627445386</v>
       </c>
       <c r="M16" t="n">
-        <v>9.25492882494885</v>
+        <v>4.695808156454294</v>
       </c>
       <c r="N16" t="n">
-        <v>9.3226581859505</v>
+        <v>4.73030567429525</v>
       </c>
       <c r="O16" t="n">
-        <v>10.14079200423836</v>
+        <v>5.145321663612058</v>
       </c>
       <c r="P16" t="n">
-        <v>8.558904504966288</v>
+        <v>4.342847168625102</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.07296264232353</v>
+        <v>5.110764899353629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.770978447557679</v>
+        <v>4.957677321679108</v>
       </c>
       <c r="B17" t="n">
-        <v>9.716134832967786</v>
+        <v>4.929856723173317</v>
       </c>
       <c r="C17" t="n">
-        <v>9.720363015291008</v>
+        <v>4.931999316691319</v>
       </c>
       <c r="D17" t="n">
-        <v>9.291127359097141</v>
+        <v>4.714262655927266</v>
       </c>
       <c r="E17" t="n">
-        <v>9.621155522527975</v>
+        <v>4.881679359452041</v>
       </c>
       <c r="F17" t="n">
-        <v>9.137331343894008</v>
+        <v>4.636242719811615</v>
       </c>
       <c r="G17" t="n">
-        <v>9.355168063660461</v>
+        <v>4.746745491746404</v>
       </c>
       <c r="H17" t="n">
-        <v>9.121485690213639</v>
+        <v>4.628181257274302</v>
       </c>
       <c r="I17" t="n">
-        <v>9.398899600729887</v>
+        <v>4.768937984420167</v>
       </c>
       <c r="J17" t="n">
-        <v>9.516354565513248</v>
+        <v>4.828432629189662</v>
       </c>
       <c r="K17" t="n">
-        <v>9.856966059121198</v>
+        <v>5.00125047919338</v>
       </c>
       <c r="L17" t="n">
-        <v>9.073534354131079</v>
+        <v>4.603834321799043</v>
       </c>
       <c r="M17" t="n">
-        <v>9.271156518046048</v>
+        <v>4.704077741022211</v>
       </c>
       <c r="N17" t="n">
-        <v>9.420330335351865</v>
+        <v>4.779864846768636</v>
       </c>
       <c r="O17" t="n">
-        <v>10.19804522167044</v>
+        <v>5.174463609141358</v>
       </c>
       <c r="P17" t="n">
-        <v>8.534214459144014</v>
+        <v>4.330136229541282</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.05351695576861</v>
+        <v>5.100929994053331</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.770241913885741</v>
+        <v>4.957304828818491</v>
       </c>
       <c r="B18" t="n">
-        <v>9.726390615243643</v>
+        <v>4.935051874416128</v>
       </c>
       <c r="C18" t="n">
-        <v>9.729084053013059</v>
+        <v>4.936430341062636</v>
       </c>
       <c r="D18" t="n">
-        <v>9.345999716464476</v>
+        <v>4.742037680265771</v>
       </c>
       <c r="E18" t="n">
-        <v>9.630931060897412</v>
+        <v>4.886647247513986</v>
       </c>
       <c r="F18" t="n">
-        <v>9.201348096142794</v>
+        <v>4.668671170457792</v>
       </c>
       <c r="G18" t="n">
-        <v>9.340460144920485</v>
+        <v>4.739313864200983</v>
       </c>
       <c r="H18" t="n">
-        <v>9.353140500235106</v>
+        <v>4.745535345691072</v>
       </c>
       <c r="I18" t="n">
-        <v>9.379282056318178</v>
+        <v>4.758919567139597</v>
       </c>
       <c r="J18" t="n">
-        <v>9.894823889858875</v>
+        <v>5.020438418931874</v>
       </c>
       <c r="K18" t="n">
-        <v>9.967620961808183</v>
+        <v>5.057425501617769</v>
       </c>
       <c r="L18" t="n">
-        <v>9.10847479295844</v>
+        <v>4.621483373822183</v>
       </c>
       <c r="M18" t="n">
-        <v>9.275025415651251</v>
+        <v>4.705994590498257</v>
       </c>
       <c r="N18" t="n">
-        <v>9.453075544552128</v>
+        <v>4.796495164239045</v>
       </c>
       <c r="O18" t="n">
-        <v>10.21638431129386</v>
+        <v>5.183560212931624</v>
       </c>
       <c r="P18" t="n">
-        <v>8.497172204716241</v>
+        <v>4.311455074543007</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.06841888825631</v>
+        <v>5.10850624362294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.782532445281312</v>
+        <v>4.963571276820303</v>
       </c>
       <c r="B19" t="n">
-        <v>9.734175716275253</v>
+        <v>4.939032322186879</v>
       </c>
       <c r="C19" t="n">
-        <v>9.735672137125803</v>
+        <v>4.939810425136341</v>
       </c>
       <c r="D19" t="n">
-        <v>9.326171990492728</v>
+        <v>4.732067571602523</v>
       </c>
       <c r="E19" t="n">
-        <v>9.62644838523226</v>
+        <v>4.884386464988824</v>
       </c>
       <c r="F19" t="n">
-        <v>9.183717995029596</v>
+        <v>4.65976020544227</v>
       </c>
       <c r="G19" t="n">
-        <v>9.390114490566456</v>
+        <v>4.764481134687387</v>
       </c>
       <c r="H19" t="n">
-        <v>9.257266570847428</v>
+        <v>4.697038355143231</v>
       </c>
       <c r="I19" t="n">
-        <v>9.375207767615843</v>
+        <v>4.75687328702846</v>
       </c>
       <c r="J19" t="n">
-        <v>9.857859480453339</v>
+        <v>5.001845677818133</v>
       </c>
       <c r="K19" t="n">
-        <v>10.07373989493018</v>
+        <v>5.111268645816029</v>
       </c>
       <c r="L19" t="n">
-        <v>9.093731544554524</v>
+        <v>4.614040200821049</v>
       </c>
       <c r="M19" t="n">
-        <v>9.324122271176428</v>
+        <v>4.730922748520301</v>
       </c>
       <c r="N19" t="n">
-        <v>9.323371964923632</v>
+        <v>4.730677255672521</v>
       </c>
       <c r="O19" t="n">
-        <v>10.25400381650192</v>
+        <v>5.202805272293117</v>
       </c>
       <c r="P19" t="n">
-        <v>8.463829385268339</v>
+        <v>4.294563161352377</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.08672564225512</v>
+        <v>5.117752938337468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.770900003727579</v>
+        <v>4.957588907794572</v>
       </c>
       <c r="B20" t="n">
-        <v>9.727190622549099</v>
+        <v>4.93544897732708</v>
       </c>
       <c r="C20" t="n">
-        <v>9.728887045226012</v>
+        <v>4.936269616166008</v>
       </c>
       <c r="D20" t="n">
-        <v>9.304554427817379</v>
+        <v>4.720990922157576</v>
       </c>
       <c r="E20" t="n">
-        <v>9.629947219577904</v>
+        <v>4.886088812050843</v>
       </c>
       <c r="F20" t="n">
-        <v>9.132310339959691</v>
+        <v>4.633603064042415</v>
       </c>
       <c r="G20" t="n">
-        <v>9.410579348104825</v>
+        <v>4.774779985010657</v>
       </c>
       <c r="H20" t="n">
-        <v>9.173201132525312</v>
+        <v>4.654301331684763</v>
       </c>
       <c r="I20" t="n">
-        <v>9.402275679463539</v>
+        <v>4.770637293204367</v>
       </c>
       <c r="J20" t="n">
-        <v>9.68854595827896</v>
+        <v>4.915824133238205</v>
       </c>
       <c r="K20" t="n">
-        <v>10.07540937125324</v>
+        <v>5.112115110016419</v>
       </c>
       <c r="L20" t="n">
-        <v>9.081735626627728</v>
+        <v>4.607973063844168</v>
       </c>
       <c r="M20" t="n">
-        <v>9.364683120609335</v>
+        <v>4.751514068783419</v>
       </c>
       <c r="N20" t="n">
-        <v>9.263698366107834</v>
+        <v>4.700335190404694</v>
       </c>
       <c r="O20" t="n">
-        <v>10.23103474447895</v>
+        <v>5.191075696944852</v>
       </c>
       <c r="P20" t="n">
-        <v>8.472256408329477</v>
+        <v>4.298813712021243</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.04738995371065</v>
+        <v>5.097935467434865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.816750721825453</v>
+        <v>4.980874268999852</v>
       </c>
       <c r="B21" t="n">
-        <v>9.769564063384411</v>
+        <v>4.95693810868573</v>
       </c>
       <c r="C21" t="n">
-        <v>9.770823356321069</v>
+        <v>4.95760136473363</v>
       </c>
       <c r="D21" t="n">
-        <v>9.335510399121908</v>
+        <v>4.736810627105859</v>
       </c>
       <c r="E21" t="n">
-        <v>9.65286000366171</v>
+        <v>4.897748810837051</v>
       </c>
       <c r="F21" t="n">
-        <v>9.111414340759698</v>
+        <v>4.623041098860015</v>
       </c>
       <c r="G21" t="n">
-        <v>9.448357537396674</v>
+        <v>4.793975520443698</v>
       </c>
       <c r="H21" t="n">
-        <v>9.024648877781669</v>
+        <v>4.579104563318583</v>
       </c>
       <c r="I21" t="n">
-        <v>9.434169982689962</v>
+        <v>4.786755660862265</v>
       </c>
       <c r="J21" t="n">
-        <v>9.568407735459859</v>
+        <v>4.854918208421757</v>
       </c>
       <c r="K21" t="n">
-        <v>10.07068118436411</v>
+        <v>5.109699071494703</v>
       </c>
       <c r="L21" t="n">
-        <v>9.05773900031123</v>
+        <v>4.595796861656501</v>
       </c>
       <c r="M21" t="n">
-        <v>9.36465198260044</v>
+        <v>4.751519841511276</v>
       </c>
       <c r="N21" t="n">
-        <v>9.244745498424461</v>
+        <v>4.690759754030142</v>
       </c>
       <c r="O21" t="n">
-        <v>10.2140202178493</v>
+        <v>5.182598901829674</v>
       </c>
       <c r="P21" t="n">
-        <v>8.476194767646831</v>
+        <v>4.300773401214537</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.04757079368539</v>
+        <v>5.098072189936723</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.588376780087364</v>
+        <v>4.86504569987603</v>
       </c>
       <c r="B22" t="n">
-        <v>9.537960152031328</v>
+        <v>4.839453981978303</v>
       </c>
       <c r="C22" t="n">
-        <v>9.564389734696679</v>
+        <v>4.852881043144077</v>
       </c>
       <c r="D22" t="n">
-        <v>9.071670265252422</v>
+        <v>4.602801611168345</v>
       </c>
       <c r="E22" t="n">
-        <v>9.390527069184314</v>
+        <v>4.764658873939802</v>
       </c>
       <c r="F22" t="n">
-        <v>8.782116124114307</v>
+        <v>4.455879914499824</v>
       </c>
       <c r="G22" t="n">
-        <v>9.246217368152614</v>
+        <v>4.691408730172294</v>
       </c>
       <c r="H22" t="n">
-        <v>8.640527406013737</v>
+        <v>4.384009756517733</v>
       </c>
       <c r="I22" t="n">
-        <v>9.577729377468867</v>
+        <v>4.859672809380804</v>
       </c>
       <c r="J22" t="n">
-        <v>8.941995428401366</v>
+        <v>4.536829358088613</v>
       </c>
       <c r="K22" t="n">
-        <v>10.33308837101656</v>
+        <v>5.242968266783276</v>
       </c>
       <c r="L22" t="n">
-        <v>8.739441482923722</v>
+        <v>4.434268644372848</v>
       </c>
       <c r="M22" t="n">
-        <v>9.109101744791381</v>
+        <v>4.621847359504907</v>
       </c>
       <c r="N22" t="n">
-        <v>8.870301360536375</v>
+        <v>4.500703019508858</v>
       </c>
       <c r="O22" t="n">
-        <v>9.720085168442406</v>
+        <v>4.93188325447863</v>
       </c>
       <c r="P22" t="n">
-        <v>8.451428074418045</v>
+        <v>4.288274230094704</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.01883699836181</v>
+        <v>5.083436198026745</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.44358084707061</v>
+        <v>4.791558874266418</v>
       </c>
       <c r="B23" t="n">
-        <v>9.409150592542836</v>
+        <v>4.774084827045655</v>
       </c>
       <c r="C23" t="n">
-        <v>9.418728524317363</v>
+        <v>4.778983442373327</v>
       </c>
       <c r="D23" t="n">
-        <v>8.936846878392153</v>
+        <v>4.53442972626712</v>
       </c>
       <c r="E23" t="n">
-        <v>9.268875060086627</v>
+        <v>4.702940513634537</v>
       </c>
       <c r="F23" t="n">
-        <v>8.674830114466614</v>
+        <v>4.401556722406152</v>
       </c>
       <c r="G23" t="n">
-        <v>9.104526852715273</v>
+        <v>4.619515481278778</v>
       </c>
       <c r="H23" t="n">
-        <v>8.562112318690335</v>
+        <v>4.34446626687488</v>
       </c>
       <c r="I23" t="n">
-        <v>9.432435236309793</v>
+        <v>4.785878813883684</v>
       </c>
       <c r="J23" t="n">
-        <v>8.874046304913863</v>
+        <v>4.502724689569661</v>
       </c>
       <c r="K23" t="n">
-        <v>10.17519471360442</v>
+        <v>5.162796014660602</v>
       </c>
       <c r="L23" t="n">
-        <v>8.596158737377692</v>
+        <v>4.361595165735396</v>
       </c>
       <c r="M23" t="n">
-        <v>8.930666582434361</v>
+        <v>4.531285108724392</v>
       </c>
       <c r="N23" t="n">
-        <v>8.782392174539318</v>
+        <v>4.456181615487257</v>
       </c>
       <c r="O23" t="n">
-        <v>9.499444830259678</v>
+        <v>4.819885346029081</v>
       </c>
       <c r="P23" t="n">
-        <v>8.391721541169762</v>
+        <v>4.257964674399539</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.943252475808537</v>
+        <v>5.045021428593673</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.394011532141237</v>
+        <v>4.766541998532056</v>
       </c>
       <c r="B24" t="n">
-        <v>9.3399254094985</v>
+        <v>4.739088727814591</v>
       </c>
       <c r="C24" t="n">
-        <v>9.3702035303017</v>
+        <v>4.754464236545727</v>
       </c>
       <c r="D24" t="n">
-        <v>8.888991351567732</v>
+        <v>4.510263568322095</v>
       </c>
       <c r="E24" t="n">
-        <v>9.187407250275788</v>
+        <v>4.661664294151475</v>
       </c>
       <c r="F24" t="n">
-        <v>8.599907873410221</v>
+        <v>4.363563362106584</v>
       </c>
       <c r="G24" t="n">
-        <v>9.058218645409786</v>
+        <v>4.596076990871419</v>
       </c>
       <c r="H24" t="n">
-        <v>8.520993979136636</v>
+        <v>4.323422243216722</v>
       </c>
       <c r="I24" t="n">
-        <v>9.377447907832691</v>
+        <v>4.757911770387015</v>
       </c>
       <c r="J24" t="n">
-        <v>8.929227647138694</v>
+        <v>4.530533438791957</v>
       </c>
       <c r="K24" t="n">
-        <v>10.0910574183387</v>
+        <v>5.119893708888778</v>
       </c>
       <c r="L24" t="n">
-        <v>8.545310967660035</v>
+        <v>4.335794110495936</v>
       </c>
       <c r="M24" t="n">
-        <v>8.907744816232603</v>
+        <v>4.519665215205396</v>
       </c>
       <c r="N24" t="n">
-        <v>8.67701456555217</v>
+        <v>4.402669643571274</v>
       </c>
       <c r="O24" t="n">
-        <v>9.469950548949624</v>
+        <v>4.804994442610084</v>
       </c>
       <c r="P24" t="n">
-        <v>8.412900177681264</v>
+        <v>4.268621130022112</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.848703109414622</v>
+        <v>4.997161261076706</v>
       </c>
     </row>
   </sheetData>
@@ -1782,1221 +1782,1221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.444543131307038</v>
+        <v>2.762317121310762</v>
       </c>
       <c r="B2" t="n">
-        <v>5.375762862505182</v>
+        <v>2.727417639314343</v>
       </c>
       <c r="C2" t="n">
-        <v>5.353609366792122</v>
+        <v>2.716178138178293</v>
       </c>
       <c r="D2" t="n">
-        <v>5.354515961897257</v>
+        <v>2.716659401384832</v>
       </c>
       <c r="E2" t="n">
-        <v>5.412979370021193</v>
+        <v>2.746334564671376</v>
       </c>
       <c r="F2" t="n">
-        <v>5.793901411375164</v>
+        <v>2.939607620091918</v>
       </c>
       <c r="G2" t="n">
-        <v>5.875882399524905</v>
+        <v>2.981243571668758</v>
       </c>
       <c r="H2" t="n">
-        <v>6.578982233220992</v>
+        <v>3.338010913949668</v>
       </c>
       <c r="I2" t="n">
-        <v>6.334255447542261</v>
+        <v>3.213940408586082</v>
       </c>
       <c r="J2" t="n">
-        <v>7.194953127565985</v>
+        <v>3.650577086691105</v>
       </c>
       <c r="K2" t="n">
-        <v>6.597141680485406</v>
+        <v>3.347343895754257</v>
       </c>
       <c r="L2" t="n">
-        <v>6.923392563914131</v>
+        <v>3.512838280902912</v>
       </c>
       <c r="M2" t="n">
-        <v>6.987617102491504</v>
+        <v>3.545444774629286</v>
       </c>
       <c r="N2" t="n">
-        <v>7.54766533047682</v>
+        <v>3.829518889466921</v>
       </c>
       <c r="O2" t="n">
-        <v>7.64737402542149</v>
+        <v>3.880132344343521</v>
       </c>
       <c r="P2" t="n">
-        <v>8.159502654141003</v>
+        <v>4.140039693580567</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.529662920574575</v>
+        <v>4.327761815425686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.271413406619431</v>
+        <v>2.674685897142294</v>
       </c>
       <c r="B3" t="n">
-        <v>5.204045126759391</v>
+        <v>2.640503144883392</v>
       </c>
       <c r="C3" t="n">
-        <v>5.186152747802038</v>
+        <v>2.631430543487896</v>
       </c>
       <c r="D3" t="n">
-        <v>5.202816971831629</v>
+        <v>2.639888805108378</v>
       </c>
       <c r="E3" t="n">
-        <v>5.258965388755795</v>
+        <v>2.668372355834287</v>
       </c>
       <c r="F3" t="n">
-        <v>5.648276728275513</v>
+        <v>2.865913887762827</v>
       </c>
       <c r="G3" t="n">
-        <v>5.699831690079805</v>
+        <v>2.892054622462459</v>
       </c>
       <c r="H3" t="n">
-        <v>6.411093873761422</v>
+        <v>3.252939742671541</v>
       </c>
       <c r="I3" t="n">
-        <v>6.256740368437496</v>
+        <v>3.174708646247465</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952963492630696</v>
+        <v>3.527752579061116</v>
       </c>
       <c r="K3" t="n">
-        <v>6.676938217549591</v>
+        <v>3.387828036209891</v>
       </c>
       <c r="L3" t="n">
-        <v>6.809521464193011</v>
+        <v>3.45515323440245</v>
       </c>
       <c r="M3" t="n">
-        <v>6.84956494363197</v>
+        <v>3.475453487650502</v>
       </c>
       <c r="N3" t="n">
-        <v>7.553664786459876</v>
+        <v>3.83268599026551</v>
       </c>
       <c r="O3" t="n">
-        <v>7.570788296120668</v>
+        <v>3.84133839783863</v>
       </c>
       <c r="P3" t="n">
-        <v>8.197701206552933</v>
+        <v>4.159537841484387</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.494691343738319</v>
+        <v>4.310052301673947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.193673175758042</v>
+        <v>2.63544653910913</v>
       </c>
       <c r="B4" t="n">
-        <v>5.124646796924343</v>
+        <v>2.600424310688821</v>
       </c>
       <c r="C4" t="n">
-        <v>5.112449080747593</v>
+        <v>2.59423290814914</v>
       </c>
       <c r="D4" t="n">
-        <v>5.159483641991342</v>
+        <v>2.61807002060636</v>
       </c>
       <c r="E4" t="n">
-        <v>5.198616933477985</v>
+        <v>2.637935800126286</v>
       </c>
       <c r="F4" t="n">
-        <v>5.625516041389001</v>
+        <v>2.854446515790348</v>
       </c>
       <c r="G4" t="n">
-        <v>5.685519583337513</v>
+        <v>2.884922569109996</v>
       </c>
       <c r="H4" t="n">
-        <v>6.260846992764455</v>
+        <v>3.176673500513051</v>
       </c>
       <c r="I4" t="n">
-        <v>6.454484090348729</v>
+        <v>3.27498335973217</v>
       </c>
       <c r="J4" t="n">
-        <v>7.029726469059074</v>
+        <v>3.566621874855919</v>
       </c>
       <c r="K4" t="n">
-        <v>6.769516308457308</v>
+        <v>3.434635744290335</v>
       </c>
       <c r="L4" t="n">
-        <v>6.8369720142654</v>
+        <v>3.469011427190748</v>
       </c>
       <c r="M4" t="n">
-        <v>6.88518143653707</v>
+        <v>3.493465310045238</v>
       </c>
       <c r="N4" t="n">
-        <v>7.623740276670191</v>
+        <v>3.86829977137719</v>
       </c>
       <c r="O4" t="n">
-        <v>7.59065195056422</v>
+        <v>3.851455862976101</v>
       </c>
       <c r="P4" t="n">
-        <v>8.267397052577875</v>
+        <v>4.194916459892871</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.444165732651152</v>
+        <v>4.284511323015797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.176867633072697</v>
+        <v>2.626716959279406</v>
       </c>
       <c r="B5" t="n">
-        <v>5.108221497232235</v>
+        <v>2.591874900733767</v>
       </c>
       <c r="C5" t="n">
-        <v>5.092747703235014</v>
+        <v>2.584027636782698</v>
       </c>
       <c r="D5" t="n">
-        <v>5.141295451949486</v>
+        <v>2.608699364156814</v>
       </c>
       <c r="E5" t="n">
-        <v>5.190146197442821</v>
+        <v>2.633475000632342</v>
       </c>
       <c r="F5" t="n">
-        <v>5.607926659210511</v>
+        <v>2.84553463929148</v>
       </c>
       <c r="G5" t="n">
-        <v>5.702977826593925</v>
+        <v>2.893787352302669</v>
       </c>
       <c r="H5" t="n">
-        <v>6.259587699827798</v>
+        <v>3.17617279232847</v>
       </c>
       <c r="I5" t="n">
-        <v>6.509980405509691</v>
+        <v>3.303207441532331</v>
       </c>
       <c r="J5" t="n">
-        <v>6.805754962732444</v>
+        <v>3.453230004542985</v>
       </c>
       <c r="K5" t="n">
-        <v>7.116244025581671</v>
+        <v>3.610790534822728</v>
       </c>
       <c r="L5" t="n">
-        <v>6.810180152842713</v>
+        <v>3.455454631562101</v>
       </c>
       <c r="M5" t="n">
-        <v>6.865745929715826</v>
+        <v>3.483651065034109</v>
       </c>
       <c r="N5" t="n">
-        <v>7.601571810760547</v>
+        <v>3.856817815671179</v>
       </c>
       <c r="O5" t="n">
-        <v>7.549925830161024</v>
+        <v>3.830639710154373</v>
       </c>
       <c r="P5" t="n">
-        <v>8.338510875623266</v>
+        <v>4.23065268360066</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.382356784994593</v>
+        <v>4.252853987280098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.257192318672371</v>
+        <v>2.667250016007926</v>
       </c>
       <c r="B6" t="n">
-        <v>5.176586792184779</v>
+        <v>2.626351758285554</v>
       </c>
       <c r="C6" t="n">
-        <v>5.162184864262982</v>
+        <v>2.619047130752969</v>
       </c>
       <c r="D6" t="n">
-        <v>5.165341779318643</v>
+        <v>2.620660760102672</v>
       </c>
       <c r="E6" t="n">
-        <v>5.215106904419336</v>
+        <v>2.645920394234777</v>
       </c>
       <c r="F6" t="n">
-        <v>5.629904105411741</v>
+        <v>2.856389798283419</v>
       </c>
       <c r="G6" t="n">
-        <v>5.7287924335836</v>
+        <v>2.906602504315684</v>
       </c>
       <c r="H6" t="n">
-        <v>6.298179669005959</v>
+        <v>3.195583437831101</v>
       </c>
       <c r="I6" t="n">
-        <v>6.545607676956331</v>
+        <v>3.321128723248059</v>
       </c>
       <c r="J6" t="n">
-        <v>6.86344950155982</v>
+        <v>3.482405067300512</v>
       </c>
       <c r="K6" t="n">
-        <v>7.155536599959969</v>
+        <v>3.630528706674253</v>
       </c>
       <c r="L6" t="n">
-        <v>6.823298236705455</v>
+        <v>3.462136412141779</v>
       </c>
       <c r="M6" t="n">
-        <v>6.883171238539753</v>
+        <v>3.492521620954637</v>
       </c>
       <c r="N6" t="n">
-        <v>7.6078197720069</v>
+        <v>3.860096117437945</v>
       </c>
       <c r="O6" t="n">
-        <v>7.548155754116916</v>
+        <v>3.829843985193561</v>
       </c>
       <c r="P6" t="n">
-        <v>8.403536619121821</v>
+        <v>4.263793306567625</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.427919476510189</v>
+        <v>4.276136614035339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.279226651620621</v>
+        <v>2.678738959752921</v>
       </c>
       <c r="B7" t="n">
-        <v>5.201639715572253</v>
+        <v>2.639364094529026</v>
       </c>
       <c r="C7" t="n">
-        <v>5.181904206011462</v>
+        <v>2.629360260981988</v>
       </c>
       <c r="D7" t="n">
-        <v>5.182438941433447</v>
+        <v>2.62962519880781</v>
       </c>
       <c r="E7" t="n">
-        <v>5.245643111411646</v>
+        <v>2.661672953243259</v>
       </c>
       <c r="F7" t="n">
-        <v>5.660167854826219</v>
+        <v>2.87198436684531</v>
       </c>
       <c r="G7" t="n">
-        <v>5.757975933612568</v>
+        <v>2.921600355113911</v>
       </c>
       <c r="H7" t="n">
-        <v>6.327507481729998</v>
+        <v>3.210560020684595</v>
       </c>
       <c r="I7" t="n">
-        <v>6.584869113325736</v>
+        <v>3.341112387947365</v>
       </c>
       <c r="J7" t="n">
-        <v>6.859527908862641</v>
+        <v>3.480440213034926</v>
       </c>
       <c r="K7" t="n">
-        <v>7.171399619068378</v>
+        <v>3.638664607018133</v>
       </c>
       <c r="L7" t="n">
-        <v>6.854264986551524</v>
+        <v>3.477829724732789</v>
       </c>
       <c r="M7" t="n">
-        <v>6.909110996372871</v>
+        <v>3.505654576827526</v>
       </c>
       <c r="N7" t="n">
-        <v>7.641760201702441</v>
+        <v>3.877352623966862</v>
       </c>
       <c r="O7" t="n">
-        <v>7.574151799889191</v>
+        <v>3.84309513007361</v>
       </c>
       <c r="P7" t="n">
-        <v>8.461316188665794</v>
+        <v>4.293232395667628</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.536229447604237</v>
+        <v>4.331184739216639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.252582096932322</v>
+        <v>2.665383905771459</v>
       </c>
       <c r="B8" t="n">
-        <v>5.176605954036407</v>
+        <v>2.626839705703296</v>
       </c>
       <c r="C8" t="n">
-        <v>5.16109383633593</v>
+        <v>2.618964489596291</v>
       </c>
       <c r="D8" t="n">
-        <v>5.176858650954747</v>
+        <v>2.626915662648772</v>
       </c>
       <c r="E8" t="n">
-        <v>5.230104047357319</v>
+        <v>2.653946308921606</v>
       </c>
       <c r="F8" t="n">
-        <v>5.684740534307275</v>
+        <v>2.884477461409504</v>
       </c>
       <c r="G8" t="n">
-        <v>5.743261427986094</v>
+        <v>2.91422615101927</v>
       </c>
       <c r="H8" t="n">
-        <v>6.528957225507598</v>
+        <v>3.312774674556771</v>
       </c>
       <c r="I8" t="n">
-        <v>6.343581880014174</v>
+        <v>3.21870625117306</v>
       </c>
       <c r="J8" t="n">
-        <v>7.170474460919478</v>
+        <v>3.638255350995906</v>
       </c>
       <c r="K8" t="n">
-        <v>6.86827888697786</v>
+        <v>3.484900101045525</v>
       </c>
       <c r="L8" t="n">
-        <v>6.889750340534547</v>
+        <v>3.495798099754712</v>
       </c>
       <c r="M8" t="n">
-        <v>6.921642248529515</v>
+        <v>3.511992120530304</v>
       </c>
       <c r="N8" t="n">
-        <v>7.710359630529561</v>
+        <v>3.912209570073814</v>
       </c>
       <c r="O8" t="n">
-        <v>7.622272598597083</v>
+        <v>3.867502223449686</v>
       </c>
       <c r="P8" t="n">
-        <v>8.553534396047629</v>
+        <v>4.340047395614838</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.611857084323674</v>
+        <v>4.36960254692753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.256001289832137</v>
+        <v>2.666896968125351</v>
       </c>
       <c r="B9" t="n">
-        <v>5.182149118427579</v>
+        <v>2.629437737066374</v>
       </c>
       <c r="C9" t="n">
-        <v>5.162442351644229</v>
+        <v>2.619426003997007</v>
       </c>
       <c r="D9" t="n">
-        <v>5.192274360589221</v>
+        <v>2.634538094041231</v>
       </c>
       <c r="E9" t="n">
-        <v>5.263506747591557</v>
+        <v>2.670716690999474</v>
       </c>
       <c r="F9" t="n">
-        <v>5.704964671084571</v>
+        <v>2.894611029419416</v>
       </c>
       <c r="G9" t="n">
-        <v>5.772347921141196</v>
+        <v>2.928850901301317</v>
       </c>
       <c r="H9" t="n">
-        <v>6.528965010009822</v>
+        <v>3.312636129088221</v>
       </c>
       <c r="I9" t="n">
-        <v>6.3400099911092</v>
+        <v>3.216800339497163</v>
       </c>
       <c r="J9" t="n">
-        <v>7.108262515570876</v>
+        <v>3.606664857372226</v>
       </c>
       <c r="K9" t="n">
-        <v>6.619595777745874</v>
+        <v>3.358733487814569</v>
       </c>
       <c r="L9" t="n">
-        <v>6.916321241855652</v>
+        <v>3.509227591542741</v>
       </c>
       <c r="M9" t="n">
-        <v>6.950013765095759</v>
+        <v>3.526324588486157</v>
       </c>
       <c r="N9" t="n">
-        <v>7.754277995652355</v>
+        <v>3.934387479014045</v>
       </c>
       <c r="O9" t="n">
-        <v>7.692868452840663</v>
+        <v>3.903258499791081</v>
       </c>
       <c r="P9" t="n">
-        <v>8.600416261286219</v>
+        <v>4.363728340592159</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.674901372602354</v>
+        <v>4.401439444882336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.299971751239045</v>
+        <v>2.689099790943699</v>
       </c>
       <c r="B10" t="n">
-        <v>5.227985465136732</v>
+        <v>2.652580299214157</v>
       </c>
       <c r="C10" t="n">
-        <v>5.205875083589835</v>
+        <v>2.641361762195058</v>
       </c>
       <c r="D10" t="n">
-        <v>5.21509672468566</v>
+        <v>2.646046482764268</v>
       </c>
       <c r="E10" t="n">
-        <v>5.292367490182171</v>
+        <v>2.6852679149583</v>
       </c>
       <c r="F10" t="n">
-        <v>5.683035728320274</v>
+        <v>2.883461765134592</v>
       </c>
       <c r="G10" t="n">
-        <v>5.778720434423128</v>
+        <v>2.932033497316783</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5651719274682</v>
+        <v>3.331038066354924</v>
       </c>
       <c r="I10" t="n">
-        <v>6.358941301709492</v>
+        <v>3.22643411080584</v>
       </c>
       <c r="J10" t="n">
-        <v>6.748887377564376</v>
+        <v>3.42423541548791</v>
       </c>
       <c r="K10" t="n">
-        <v>6.492725756926823</v>
+        <v>3.294324124844962</v>
       </c>
       <c r="L10" t="n">
-        <v>6.891871916794449</v>
+        <v>3.496789793634854</v>
       </c>
       <c r="M10" t="n">
-        <v>6.963591733397566</v>
+        <v>3.533185019801596</v>
       </c>
       <c r="N10" t="n">
-        <v>7.801947892039134</v>
+        <v>3.958475857046902</v>
       </c>
       <c r="O10" t="n">
-        <v>7.787501652335448</v>
+        <v>3.951157253436349</v>
       </c>
       <c r="P10" t="n">
-        <v>8.656192818527234</v>
+        <v>4.391837879318541</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.79151201829837</v>
+        <v>4.460444319267398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.377843719830376</v>
+        <v>2.72863659637535</v>
       </c>
       <c r="B11" t="n">
-        <v>5.301179546699453</v>
+        <v>2.689726587657771</v>
       </c>
       <c r="C11" t="n">
-        <v>5.276363152418009</v>
+        <v>2.677140521792313</v>
       </c>
       <c r="D11" t="n">
-        <v>5.252938387611024</v>
+        <v>2.665260855519787</v>
       </c>
       <c r="E11" t="n">
-        <v>5.33772958106354</v>
+        <v>2.708267678048587</v>
       </c>
       <c r="F11" t="n">
-        <v>5.718854019475327</v>
+        <v>2.901682013387715</v>
       </c>
       <c r="G11" t="n">
-        <v>5.82519151746745</v>
+        <v>2.955686490138168</v>
       </c>
       <c r="H11" t="n">
-        <v>6.324385896338275</v>
+        <v>3.20895398702944</v>
       </c>
       <c r="I11" t="n">
-        <v>6.561286862050687</v>
+        <v>3.329208719280068</v>
       </c>
       <c r="J11" t="n">
-        <v>6.824994659382368</v>
+        <v>3.46326361321265</v>
       </c>
       <c r="K11" t="n">
-        <v>6.470401600972703</v>
+        <v>3.283054848586286</v>
       </c>
       <c r="L11" t="n">
-        <v>6.971052280567233</v>
+        <v>3.536991678081097</v>
       </c>
       <c r="M11" t="n">
-        <v>7.043533780772549</v>
+        <v>3.573787653092173</v>
       </c>
       <c r="N11" t="n">
-        <v>7.799261639964078</v>
+        <v>3.957235632041161</v>
       </c>
       <c r="O11" t="n">
-        <v>7.819457033963933</v>
+        <v>3.96751686035308</v>
       </c>
       <c r="P11" t="n">
-        <v>8.590921563804699</v>
+        <v>4.358960067382926</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.824309323782748</v>
+        <v>4.477263617618153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.415075796350835</v>
+        <v>2.747679306434093</v>
       </c>
       <c r="B12" t="n">
-        <v>5.310524542215131</v>
+        <v>2.694620645568714</v>
       </c>
       <c r="C12" t="n">
-        <v>5.338445755268125</v>
+        <v>2.708792996283503</v>
       </c>
       <c r="D12" t="n">
-        <v>5.275367933749096</v>
+        <v>2.676765902137223</v>
       </c>
       <c r="E12" t="n">
-        <v>5.371670010759081</v>
+        <v>2.725629308990044</v>
       </c>
       <c r="F12" t="n">
-        <v>5.745471627809775</v>
+        <v>2.915269495622336</v>
       </c>
       <c r="G12" t="n">
-        <v>5.865024815346367</v>
+        <v>2.975962437163667</v>
       </c>
       <c r="H12" t="n">
-        <v>6.396944642757965</v>
+        <v>3.245818930947009</v>
       </c>
       <c r="I12" t="n">
-        <v>6.636055808294058</v>
+        <v>3.367149517373366</v>
       </c>
       <c r="J12" t="n">
-        <v>6.432574309436059</v>
+        <v>3.263792167213443</v>
       </c>
       <c r="K12" t="n">
-        <v>6.630260545792409</v>
+        <v>3.364214237172372</v>
       </c>
       <c r="L12" t="n">
-        <v>6.98445240293362</v>
+        <v>3.543785267284516</v>
       </c>
       <c r="M12" t="n">
-        <v>7.073259800725725</v>
+        <v>3.588859334041404</v>
       </c>
       <c r="N12" t="n">
-        <v>7.834260761962048</v>
+        <v>3.9750056075215</v>
       </c>
       <c r="O12" t="n">
-        <v>7.862142453696059</v>
+        <v>3.989137245313513</v>
       </c>
       <c r="P12" t="n">
-        <v>8.58197657194175</v>
+        <v>4.354428172188015</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.872958271026128</v>
+        <v>4.501937775614524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.455937247331151</v>
+        <v>2.768400968815648</v>
       </c>
       <c r="B13" t="n">
-        <v>5.360072300061423</v>
+        <v>2.719746595476779</v>
       </c>
       <c r="C13" t="n">
-        <v>5.394586387690067</v>
+        <v>2.737254671409115</v>
       </c>
       <c r="D13" t="n">
-        <v>5.355469264015734</v>
+        <v>2.717370966050056</v>
       </c>
       <c r="E13" t="n">
-        <v>5.461390590542818</v>
+        <v>2.771101693969011</v>
       </c>
       <c r="F13" t="n">
-        <v>5.84259407159257</v>
+        <v>2.96452575179716</v>
       </c>
       <c r="G13" t="n">
-        <v>5.929491272300541</v>
+        <v>3.008628481135295</v>
       </c>
       <c r="H13" t="n">
-        <v>6.449952911246645</v>
+        <v>3.27275022553516</v>
       </c>
       <c r="I13" t="n">
-        <v>6.650599653679472</v>
+        <v>3.374543470273832</v>
       </c>
       <c r="J13" t="n">
-        <v>6.439874376098345</v>
+        <v>3.267600040804071</v>
       </c>
       <c r="K13" t="n">
-        <v>6.583240355937382</v>
+        <v>3.340354945287073</v>
       </c>
       <c r="L13" t="n">
-        <v>7.077759841818914</v>
+        <v>3.591218860595686</v>
       </c>
       <c r="M13" t="n">
-        <v>7.15603840094947</v>
+        <v>3.630941304802082</v>
       </c>
       <c r="N13" t="n">
-        <v>7.858203495570843</v>
+        <v>3.987178467603565</v>
       </c>
       <c r="O13" t="n">
-        <v>7.836644017258242</v>
+        <v>3.976265581333064</v>
       </c>
       <c r="P13" t="n">
-        <v>8.531374912255936</v>
+        <v>4.328775384906124</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.874364870697173</v>
+        <v>4.502817660870924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.527618141423147</v>
+        <v>2.80473239114819</v>
       </c>
       <c r="B14" t="n">
-        <v>5.450790493745527</v>
+        <v>2.765755540318592</v>
       </c>
       <c r="C14" t="n">
-        <v>5.432172958465639</v>
+        <v>2.756297077640075</v>
       </c>
       <c r="D14" t="n">
-        <v>5.423599826285839</v>
+        <v>2.751942617869798</v>
       </c>
       <c r="E14" t="n">
-        <v>5.492563929101748</v>
+        <v>2.786964238634543</v>
       </c>
       <c r="F14" t="n">
-        <v>5.897443075453234</v>
+        <v>2.992385240259035</v>
       </c>
       <c r="G14" t="n">
-        <v>5.995883495343296</v>
+        <v>3.042369467799306</v>
       </c>
       <c r="H14" t="n">
-        <v>6.435175530794518</v>
+        <v>3.26521043529938</v>
       </c>
       <c r="I14" t="n">
-        <v>6.837109740073974</v>
+        <v>3.469174886537414</v>
       </c>
       <c r="J14" t="n">
-        <v>6.694237776722213</v>
+        <v>3.396271106441278</v>
       </c>
       <c r="K14" t="n">
-        <v>7.46998378278604</v>
+        <v>3.790297153445107</v>
       </c>
       <c r="L14" t="n">
-        <v>7.123981221984213</v>
+        <v>3.614727839048448</v>
       </c>
       <c r="M14" t="n">
-        <v>7.189768649084969</v>
+        <v>3.648113954863193</v>
       </c>
       <c r="N14" t="n">
-        <v>7.860119680733612</v>
+        <v>3.988174718900435</v>
       </c>
       <c r="O14" t="n">
-        <v>7.853928007426415</v>
+        <v>3.985027063079889</v>
       </c>
       <c r="P14" t="n">
-        <v>8.515823273236478</v>
+        <v>4.320885585065589</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.912858036577878</v>
+        <v>4.522261423601782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.542367377905697</v>
+        <v>2.812088061748136</v>
       </c>
       <c r="B15" t="n">
-        <v>5.445460504953713</v>
+        <v>2.762908370174351</v>
       </c>
       <c r="C15" t="n">
-        <v>5.462145687258522</v>
+        <v>2.771380607872801</v>
       </c>
       <c r="D15" t="n">
-        <v>5.447171897827211</v>
+        <v>2.763761822413725</v>
       </c>
       <c r="E15" t="n">
-        <v>5.506986815298762</v>
+        <v>2.794126067109632</v>
       </c>
       <c r="F15" t="n">
-        <v>5.952541782192921</v>
+        <v>3.020205231109261</v>
       </c>
       <c r="G15" t="n">
-        <v>6.021698701140834</v>
+        <v>3.055327722697599</v>
       </c>
       <c r="H15" t="n">
-        <v>6.521621230373511</v>
+        <v>3.3090430617394</v>
       </c>
       <c r="I15" t="n">
-        <v>6.784749980501319</v>
+        <v>3.442526759441999</v>
       </c>
       <c r="J15" t="n">
-        <v>6.554460452408323</v>
+        <v>3.325855068223389</v>
       </c>
       <c r="K15" t="n">
-        <v>6.808464568314172</v>
+        <v>3.454741243930186</v>
       </c>
       <c r="L15" t="n">
-        <v>7.199822633110871</v>
+        <v>3.653126809436861</v>
       </c>
       <c r="M15" t="n">
-        <v>7.259099222313258</v>
+        <v>3.683205152189994</v>
       </c>
       <c r="N15" t="n">
-        <v>7.891659489704921</v>
+        <v>4.004128108072758</v>
       </c>
       <c r="O15" t="n">
-        <v>7.874065317063524</v>
+        <v>3.99517004975104</v>
       </c>
       <c r="P15" t="n">
-        <v>8.501108767610004</v>
+        <v>4.313344579518681</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.903596275355209</v>
+        <v>4.517502265226007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.641495828030765</v>
+        <v>2.862468176888231</v>
       </c>
       <c r="B16" t="n">
-        <v>5.548921928778092</v>
+        <v>2.81550156687785</v>
       </c>
       <c r="C16" t="n">
-        <v>5.568326297590442</v>
+        <v>2.82533525686702</v>
       </c>
       <c r="D16" t="n">
-        <v>5.540539217498843</v>
+        <v>2.811267422909207</v>
       </c>
       <c r="E16" t="n">
-        <v>5.613032095053563</v>
+        <v>2.848043345286678</v>
       </c>
       <c r="F16" t="n">
-        <v>5.998909870284743</v>
+        <v>3.043841513402641</v>
       </c>
       <c r="G16" t="n">
-        <v>6.104563529696903</v>
+        <v>3.097467420736839</v>
       </c>
       <c r="H16" t="n">
-        <v>6.520466130005079</v>
+        <v>3.308470650198289</v>
       </c>
       <c r="I16" t="n">
-        <v>6.891709639863477</v>
+        <v>3.496858458713564</v>
       </c>
       <c r="J16" t="n">
-        <v>6.931409403588865</v>
+        <v>3.516905015763724</v>
       </c>
       <c r="K16" t="n">
-        <v>7.32925974324017</v>
+        <v>3.718792804112431</v>
       </c>
       <c r="L16" t="n">
-        <v>7.227116894330921</v>
+        <v>3.666981356291776</v>
       </c>
       <c r="M16" t="n">
-        <v>7.301413381170097</v>
+        <v>3.704673319431693</v>
       </c>
       <c r="N16" t="n">
-        <v>7.900426635632451</v>
+        <v>4.008507481721151</v>
       </c>
       <c r="O16" t="n">
-        <v>7.913929154143474</v>
+        <v>4.015345429780728</v>
       </c>
       <c r="P16" t="n">
-        <v>8.492269165931006</v>
+        <v>4.30880478480144</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.946408642354369</v>
+        <v>4.539077076019154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.647474924546467</v>
+        <v>2.865396772878023</v>
       </c>
       <c r="B17" t="n">
-        <v>5.574642522933218</v>
+        <v>2.828425185409005</v>
       </c>
       <c r="C17" t="n">
-        <v>5.553754907043313</v>
+        <v>2.817821291992702</v>
       </c>
       <c r="D17" t="n">
-        <v>5.544999138465187</v>
+        <v>2.813358669532066</v>
       </c>
       <c r="E17" t="n">
-        <v>5.62006389579306</v>
+        <v>2.851452292999664</v>
       </c>
       <c r="F17" t="n">
-        <v>6.04241745321327</v>
+        <v>3.065814946245649</v>
       </c>
       <c r="G17" t="n">
-        <v>6.104052746589453</v>
+        <v>3.097104346537461</v>
       </c>
       <c r="H17" t="n">
-        <v>6.610914261342805</v>
+        <v>3.354320389282384</v>
       </c>
       <c r="I17" t="n">
-        <v>6.984861388704298</v>
+        <v>3.544040482621317</v>
       </c>
       <c r="J17" t="n">
-        <v>7.116106299773096</v>
+        <v>3.610493391252023</v>
       </c>
       <c r="K17" t="n">
-        <v>7.4772401364743</v>
+        <v>3.793748029391996</v>
       </c>
       <c r="L17" t="n">
-        <v>7.287371935582047</v>
+        <v>3.697596562735538</v>
       </c>
       <c r="M17" t="n">
-        <v>7.330092684978111</v>
+        <v>3.719269206074459</v>
       </c>
       <c r="N17" t="n">
-        <v>7.977149491933983</v>
+        <v>4.047590976102198</v>
       </c>
       <c r="O17" t="n">
-        <v>7.797275394281295</v>
+        <v>3.956259129550115</v>
       </c>
       <c r="P17" t="n">
-        <v>8.484235559636099</v>
+        <v>4.304952248526872</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.96858010230333</v>
+        <v>4.550570273353096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.703586215383105</v>
+        <v>2.893869993459347</v>
       </c>
       <c r="B18" t="n">
-        <v>5.625717839638955</v>
+        <v>2.85435445597243</v>
       </c>
       <c r="C18" t="n">
-        <v>5.605995503851158</v>
+        <v>2.844342115247498</v>
       </c>
       <c r="D18" t="n">
-        <v>5.575066478900481</v>
+        <v>2.828656398351035</v>
       </c>
       <c r="E18" t="n">
-        <v>5.639303592442985</v>
+        <v>2.861268057149702</v>
       </c>
       <c r="F18" t="n">
-        <v>6.063900882927224</v>
+        <v>3.076715375577092</v>
       </c>
       <c r="G18" t="n">
-        <v>6.098851501488262</v>
+        <v>3.094482920435175</v>
       </c>
       <c r="H18" t="n">
-        <v>6.739208846068804</v>
+        <v>3.419393008299891</v>
       </c>
       <c r="I18" t="n">
-        <v>6.98639553445024</v>
+        <v>3.544822839159725</v>
       </c>
       <c r="J18" t="n">
-        <v>7.135423242637395</v>
+        <v>3.620424306131404</v>
       </c>
       <c r="K18" t="n">
-        <v>7.330813649645603</v>
+        <v>3.719593694145535</v>
       </c>
       <c r="L18" t="n">
-        <v>7.313857806186554</v>
+        <v>3.711005394234397</v>
       </c>
       <c r="M18" t="n">
-        <v>7.354002484154421</v>
+        <v>3.731373704905596</v>
       </c>
       <c r="N18" t="n">
-        <v>7.989737032029783</v>
+        <v>4.053951610716401</v>
       </c>
       <c r="O18" t="n">
-        <v>7.807059914768683</v>
+        <v>3.961252235317959</v>
       </c>
       <c r="P18" t="n">
-        <v>8.555140997545038</v>
+        <v>4.340893555987447</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.964041737506884</v>
+        <v>4.548298249200003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.610284764576443</v>
+        <v>2.846678550890356</v>
       </c>
       <c r="B19" t="n">
-        <v>5.536355346957509</v>
+        <v>2.809182556669768</v>
       </c>
       <c r="C19" t="n">
-        <v>5.5196342361809</v>
+        <v>2.800698469687824</v>
       </c>
       <c r="D19" t="n">
-        <v>5.542482947823326</v>
+        <v>2.812285853634156</v>
       </c>
       <c r="E19" t="n">
-        <v>5.600270900677386</v>
+        <v>2.841608880521472</v>
       </c>
       <c r="F19" t="n">
-        <v>6.060784686806271</v>
+        <v>3.075172234272792</v>
       </c>
       <c r="G19" t="n">
-        <v>6.097819755539684</v>
+        <v>3.093947879711239</v>
       </c>
       <c r="H19" t="n">
-        <v>6.716120012473167</v>
+        <v>3.40762727744558</v>
       </c>
       <c r="I19" t="n">
-        <v>6.971615159958796</v>
+        <v>3.537267249879285</v>
       </c>
       <c r="J19" t="n">
-        <v>6.915711056642882</v>
+        <v>3.508852971887651</v>
       </c>
       <c r="K19" t="n">
-        <v>7.101633113715559</v>
+        <v>3.603213677597555</v>
       </c>
       <c r="L19" t="n">
-        <v>7.295559435497839</v>
+        <v>3.701628965056995</v>
       </c>
       <c r="M19" t="n">
-        <v>7.334469970459311</v>
+        <v>3.721362579491792</v>
       </c>
       <c r="N19" t="n">
-        <v>8.00895936325167</v>
+        <v>4.063644324614767</v>
       </c>
       <c r="O19" t="n">
-        <v>7.865637096386658</v>
+        <v>3.99087574788158</v>
       </c>
       <c r="P19" t="n">
-        <v>8.634893222827333</v>
+        <v>4.381187804079389</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.927491703142799</v>
+        <v>4.529635931524206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.708189850236656</v>
+        <v>2.896360469787631</v>
       </c>
       <c r="B20" t="n">
-        <v>5.609032657334146</v>
+        <v>2.846047804415119</v>
       </c>
       <c r="C20" t="n">
-        <v>5.633683780645303</v>
+        <v>2.858555482712845</v>
       </c>
       <c r="D20" t="n">
-        <v>5.578149141781085</v>
+        <v>2.830340211918359</v>
       </c>
       <c r="E20" t="n">
-        <v>5.660682829588714</v>
+        <v>2.872232290315345</v>
       </c>
       <c r="F20" t="n">
-        <v>6.046938452581678</v>
+        <v>3.068153204855198</v>
       </c>
       <c r="G20" t="n">
-        <v>6.130153583737815</v>
+        <v>3.110410180418254</v>
       </c>
       <c r="H20" t="n">
-        <v>6.643488211494147</v>
+        <v>3.370788766545037</v>
       </c>
       <c r="I20" t="n">
-        <v>6.941074761311443</v>
+        <v>3.521817910997145</v>
       </c>
       <c r="J20" t="n">
-        <v>6.740944191256836</v>
+        <v>3.420197240438597</v>
       </c>
       <c r="K20" t="n">
-        <v>6.984651805952121</v>
+        <v>3.543891303180401</v>
       </c>
       <c r="L20" t="n">
-        <v>7.283349743163822</v>
+        <v>3.695501366351514</v>
       </c>
       <c r="M20" t="n">
-        <v>7.342128723031752</v>
+        <v>3.725324189940065</v>
       </c>
       <c r="N20" t="n">
-        <v>8.018334299160516</v>
+        <v>4.0684730595526</v>
       </c>
       <c r="O20" t="n">
-        <v>7.88501691407661</v>
+        <v>4.00073799768225</v>
       </c>
       <c r="P20" t="n">
-        <v>8.665530628348552</v>
+        <v>4.396884154948219</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.914926917745806</v>
+        <v>4.523288361504625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.586640836091467</v>
+        <v>2.834474396546754</v>
       </c>
       <c r="B21" t="n">
-        <v>5.508414373245025</v>
+        <v>2.794772916457311</v>
       </c>
       <c r="C21" t="n">
-        <v>5.49055193468084</v>
+        <v>2.785703960995197</v>
       </c>
       <c r="D21" t="n">
-        <v>5.493434595735081</v>
+        <v>2.787150485064852</v>
       </c>
       <c r="E21" t="n">
-        <v>5.556830384229556</v>
+        <v>2.819328277790957</v>
       </c>
       <c r="F21" t="n">
-        <v>6.019951978603397</v>
+        <v>3.054362461834483</v>
       </c>
       <c r="G21" t="n">
-        <v>6.059681682721953</v>
+        <v>3.074582808375894</v>
       </c>
       <c r="H21" t="n">
-        <v>6.665777636592191</v>
+        <v>3.382075360987282</v>
       </c>
       <c r="I21" t="n">
-        <v>6.893844389896374</v>
+        <v>3.497843468382503</v>
       </c>
       <c r="J21" t="n">
-        <v>6.697713257561184</v>
+        <v>3.398301587507756</v>
       </c>
       <c r="K21" t="n">
-        <v>6.933661519962982</v>
+        <v>3.518065637890606</v>
       </c>
       <c r="L21" t="n">
-        <v>7.236822970988208</v>
+        <v>3.671865387885915</v>
       </c>
       <c r="M21" t="n">
-        <v>7.277555079470037</v>
+        <v>3.692566693806083</v>
       </c>
       <c r="N21" t="n">
-        <v>8.016115117218884</v>
+        <v>4.067286915892039</v>
       </c>
       <c r="O21" t="n">
-        <v>7.884242655509279</v>
+        <v>4.000405610088845</v>
       </c>
       <c r="P21" t="n">
-        <v>8.6518520603257</v>
+        <v>4.389889127925397</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.906648997842645</v>
+        <v>4.519136554864879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.259800126917327</v>
+        <v>2.668720846300134</v>
       </c>
       <c r="B22" t="n">
-        <v>5.190981534412216</v>
+        <v>2.633810426503566</v>
       </c>
       <c r="C22" t="n">
-        <v>5.170453203240329</v>
+        <v>2.623393691000917</v>
       </c>
       <c r="D22" t="n">
-        <v>5.207765520014479</v>
+        <v>2.642328238369302</v>
       </c>
       <c r="E22" t="n">
-        <v>5.298359161663003</v>
+        <v>2.688310750194089</v>
       </c>
       <c r="F22" t="n">
-        <v>5.691039394222013</v>
+        <v>2.887557667462468</v>
       </c>
       <c r="G22" t="n">
-        <v>5.844911458023794</v>
+        <v>2.965640192101191</v>
       </c>
       <c r="H22" t="n">
-        <v>6.289635279603601</v>
+        <v>3.191332583334454</v>
       </c>
       <c r="I22" t="n">
-        <v>6.589695504704459</v>
+        <v>3.343572481497458</v>
       </c>
       <c r="J22" t="n">
-        <v>6.529463218152141</v>
+        <v>3.312967301370499</v>
       </c>
       <c r="K22" t="n">
-        <v>6.712502015362715</v>
+        <v>3.405792765298431</v>
       </c>
       <c r="L22" t="n">
-        <v>7.010338866866898</v>
+        <v>3.557045526998023</v>
       </c>
       <c r="M22" t="n">
-        <v>7.103671455682455</v>
+        <v>3.604405897813754</v>
       </c>
       <c r="N22" t="n">
-        <v>7.843890790020687</v>
+        <v>3.979892373565677</v>
       </c>
       <c r="O22" t="n">
-        <v>7.90391588905228</v>
+        <v>4.010342297696082</v>
       </c>
       <c r="P22" t="n">
-        <v>8.750496074889307</v>
+        <v>4.439932905710922</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.907368764894409</v>
+        <v>4.519492337197491</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.30155440042192</v>
+        <v>2.690025858022949</v>
       </c>
       <c r="B23" t="n">
-        <v>5.226729765047256</v>
+        <v>2.652060146051534</v>
       </c>
       <c r="C23" t="n">
-        <v>5.209178706572021</v>
+        <v>2.64315525759165</v>
       </c>
       <c r="D23" t="n">
-        <v>5.230540578289712</v>
+        <v>2.653994921366711</v>
       </c>
       <c r="E23" t="n">
-        <v>5.311713175823911</v>
+        <v>2.695189411176442</v>
       </c>
       <c r="F23" t="n">
-        <v>5.695546621009563</v>
+        <v>2.889939373444829</v>
       </c>
       <c r="G23" t="n">
-        <v>5.846651593674733</v>
+        <v>2.966616390764456</v>
       </c>
       <c r="H23" t="n">
-        <v>6.259800276619292</v>
+        <v>3.176267282768643</v>
       </c>
       <c r="I23" t="n">
-        <v>6.573264815741581</v>
+        <v>3.335243042856504</v>
       </c>
       <c r="J23" t="n">
-        <v>6.494345532197225</v>
+        <v>3.295138687128253</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684404752797892</v>
+        <v>3.391522582037869</v>
       </c>
       <c r="L23" t="n">
-        <v>6.980846381980435</v>
+        <v>3.542125759939745</v>
       </c>
       <c r="M23" t="n">
-        <v>7.067755558845672</v>
+        <v>3.586225754827842</v>
       </c>
       <c r="N23" t="n">
-        <v>7.849598626574284</v>
+        <v>3.982794536538443</v>
       </c>
       <c r="O23" t="n">
-        <v>7.898804465130595</v>
+        <v>4.007774649111194</v>
       </c>
       <c r="P23" t="n">
-        <v>8.777714886318572</v>
+        <v>4.453712407103707</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.876663095276768</v>
+        <v>4.503829711212453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.263749863584084</v>
+        <v>2.67096795657511</v>
       </c>
       <c r="B24" t="n">
-        <v>5.162293847294115</v>
+        <v>2.619494061420153</v>
       </c>
       <c r="C24" t="n">
-        <v>5.184457522740852</v>
+        <v>2.630735993178459</v>
       </c>
       <c r="D24" t="n">
-        <v>5.166181307943082</v>
+        <v>2.621450408507846</v>
       </c>
       <c r="E24" t="n">
-        <v>5.245049094011188</v>
+        <v>2.66145784317367</v>
       </c>
       <c r="F24" t="n">
-        <v>5.635093374355664</v>
+        <v>2.859316875134301</v>
       </c>
       <c r="G24" t="n">
-        <v>5.807581177013742</v>
+        <v>2.946818972495458</v>
       </c>
       <c r="H24" t="n">
-        <v>6.249944497996164</v>
+        <v>3.171184851632919</v>
       </c>
       <c r="I24" t="n">
-        <v>6.582664901580688</v>
+        <v>3.339991567259913</v>
       </c>
       <c r="J24" t="n">
-        <v>6.44767085447936</v>
+        <v>3.271499062729271</v>
       </c>
       <c r="K24" t="n">
-        <v>6.685190388714627</v>
+        <v>3.391986527060839</v>
       </c>
       <c r="L24" t="n">
-        <v>6.927647692591205</v>
+        <v>3.515068984477666</v>
       </c>
       <c r="M24" t="n">
-        <v>7.034187587641145</v>
+        <v>3.569114477978676</v>
       </c>
       <c r="N24" t="n">
-        <v>7.848705205242144</v>
+        <v>3.982374646543849</v>
       </c>
       <c r="O24" t="n">
-        <v>7.919019619789942</v>
+        <v>4.018045243450746</v>
       </c>
       <c r="P24" t="n">
-        <v>8.78486584982288</v>
+        <v>4.457389027092551</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.909420879442163</v>
+        <v>4.520540239217285</v>
       </c>
     </row>
   </sheetData>
@@ -3073,1221 +3073,1221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.89096921394043</v>
+        <v>9.076902989232419</v>
       </c>
       <c r="B2" t="n">
-        <v>12.94212776493917</v>
+        <v>9.114526591121408</v>
       </c>
       <c r="C2" t="n">
-        <v>12.83924299308721</v>
+        <v>9.04442622996892</v>
       </c>
       <c r="D2" t="n">
-        <v>13.01223259673479</v>
+        <v>9.148805656787175</v>
       </c>
       <c r="E2" t="n">
-        <v>12.75686379770833</v>
+        <v>8.96783489208379</v>
       </c>
       <c r="F2" t="n">
-        <v>13.09784655219157</v>
+        <v>9.206890844476407</v>
       </c>
       <c r="G2" t="n">
-        <v>12.63355249202126</v>
+        <v>8.842346726289831</v>
       </c>
       <c r="H2" t="n">
-        <v>13.18214672319612</v>
+        <v>9.236599732646743</v>
       </c>
       <c r="I2" t="n">
-        <v>12.49226377666024</v>
+        <v>8.651950008480593</v>
       </c>
       <c r="J2" t="n">
-        <v>13.17134063649384</v>
+        <v>9.110523963922578</v>
       </c>
       <c r="K2" t="n">
-        <v>12.48512598692892</v>
+        <v>8.42789950258075</v>
       </c>
       <c r="L2" t="n">
-        <v>12.95837701511945</v>
+        <v>9.085544459005391</v>
       </c>
       <c r="M2" t="n">
-        <v>12.66324857158127</v>
+        <v>8.802836353875206</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8633509976663</v>
+        <v>9.147254919788326</v>
       </c>
       <c r="O2" t="n">
-        <v>12.60269113235914</v>
+        <v>8.495086762960325</v>
       </c>
       <c r="P2" t="n">
-        <v>12.70960228828437</v>
+        <v>9.236836110661066</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.53651328253147</v>
+        <v>8.331143722466082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.89960761617733</v>
+        <v>8.996505904551135</v>
       </c>
       <c r="B3" t="n">
-        <v>12.94900447444206</v>
+        <v>9.012507906168562</v>
       </c>
       <c r="C3" t="n">
-        <v>12.84794846180482</v>
+        <v>8.976704232693191</v>
       </c>
       <c r="D3" t="n">
-        <v>13.01254038397656</v>
+        <v>8.99871594783672</v>
       </c>
       <c r="E3" t="n">
-        <v>12.75650930345322</v>
+        <v>8.906289713614212</v>
       </c>
       <c r="F3" t="n">
-        <v>13.07074211306421</v>
+        <v>9.108720442209183</v>
       </c>
       <c r="G3" t="n">
-        <v>12.61816073470132</v>
+        <v>8.716168871430945</v>
       </c>
       <c r="H3" t="n">
-        <v>13.12632705178895</v>
+        <v>9.144612225741307</v>
       </c>
       <c r="I3" t="n">
-        <v>12.46744319072375</v>
+        <v>8.532854986873501</v>
       </c>
       <c r="J3" t="n">
-        <v>13.20758647646333</v>
+        <v>9.050671106198216</v>
       </c>
       <c r="K3" t="n">
-        <v>12.47153304843053</v>
+        <v>8.333768794501751</v>
       </c>
       <c r="L3" t="n">
-        <v>12.94500204268332</v>
+        <v>8.95251468000896</v>
       </c>
       <c r="M3" t="n">
-        <v>12.65849164191469</v>
+        <v>8.65293137221615</v>
       </c>
       <c r="N3" t="n">
-        <v>12.85256766566282</v>
+        <v>8.995406655636199</v>
       </c>
       <c r="O3" t="n">
-        <v>12.60919418575529</v>
+        <v>8.401980562161912</v>
       </c>
       <c r="P3" t="n">
-        <v>12.6704186969372</v>
+        <v>9.099529044150962</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.55697215199121</v>
+        <v>8.253695590235978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.9000495363805</v>
+        <v>8.939426386820012</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9494140590206</v>
+        <v>8.969405074060681</v>
       </c>
       <c r="C4" t="n">
-        <v>12.84814367316827</v>
+        <v>8.914065881864314</v>
       </c>
       <c r="D4" t="n">
-        <v>13.01302302311443</v>
+        <v>8.985984956119292</v>
       </c>
       <c r="E4" t="n">
-        <v>12.75637636810755</v>
+        <v>8.838068831120594</v>
       </c>
       <c r="F4" t="n">
-        <v>13.0721397306173</v>
+        <v>9.059580552074829</v>
       </c>
       <c r="G4" t="n">
-        <v>12.61651161784561</v>
+        <v>8.663445636436791</v>
       </c>
       <c r="H4" t="n">
-        <v>13.12780011913283</v>
+        <v>9.097398603744237</v>
       </c>
       <c r="I4" t="n">
-        <v>12.45422151310064</v>
+        <v>8.476972550603087</v>
       </c>
       <c r="J4" t="n">
-        <v>13.21408833224375</v>
+        <v>9.001804053412013</v>
       </c>
       <c r="K4" t="n">
-        <v>12.49994528393148</v>
+        <v>8.259529083648573</v>
       </c>
       <c r="L4" t="n">
-        <v>12.94217926241542</v>
+        <v>8.906399699271262</v>
       </c>
       <c r="M4" t="n">
-        <v>12.65514550357421</v>
+        <v>8.612739817914491</v>
       </c>
       <c r="N4" t="n">
-        <v>12.84979997571834</v>
+        <v>8.921405145764037</v>
       </c>
       <c r="O4" t="n">
-        <v>12.61754755544923</v>
+        <v>8.330562803747078</v>
       </c>
       <c r="P4" t="n">
-        <v>12.67228098939227</v>
+        <v>8.954958063031048</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.564870427709</v>
+        <v>8.235431894610041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12.89895491560626</v>
+        <v>8.699644893684203</v>
       </c>
       <c r="B5" t="n">
-        <v>12.94910387654738</v>
+        <v>8.735511763338211</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8466753962873</v>
+        <v>8.712048966708299</v>
       </c>
       <c r="D5" t="n">
-        <v>13.01485657279206</v>
+        <v>8.837058907573537</v>
       </c>
       <c r="E5" t="n">
-        <v>12.75455239935574</v>
+        <v>8.766536833459764</v>
       </c>
       <c r="F5" t="n">
-        <v>13.07078043676746</v>
+        <v>8.995985143732948</v>
       </c>
       <c r="G5" t="n">
-        <v>12.61405770322154</v>
+        <v>8.600355797524001</v>
       </c>
       <c r="H5" t="n">
-        <v>13.12853785042049</v>
+        <v>9.056353901030986</v>
       </c>
       <c r="I5" t="n">
-        <v>12.45212089511596</v>
+        <v>8.413754496366334</v>
       </c>
       <c r="J5" t="n">
-        <v>13.22373153407539</v>
+        <v>8.928969242222369</v>
       </c>
       <c r="K5" t="n">
-        <v>12.49947821379806</v>
+        <v>8.231541683690518</v>
       </c>
       <c r="L5" t="n">
-        <v>12.94038403644105</v>
+        <v>8.848668774775732</v>
       </c>
       <c r="M5" t="n">
-        <v>12.65157301586137</v>
+        <v>8.54715190697887</v>
       </c>
       <c r="N5" t="n">
-        <v>12.85022273406988</v>
+        <v>8.877476509744934</v>
       </c>
       <c r="O5" t="n">
-        <v>12.60285281048225</v>
+        <v>8.257447255686953</v>
       </c>
       <c r="P5" t="n">
-        <v>12.67075762218787</v>
+        <v>8.80104863120647</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.54507503736187</v>
+        <v>8.191333115033071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.89429379519783</v>
+        <v>8.713063143844302</v>
       </c>
       <c r="B6" t="n">
-        <v>12.94352658010799</v>
+        <v>8.741449165852218</v>
       </c>
       <c r="C6" t="n">
-        <v>12.84079031260615</v>
+        <v>8.715439077098805</v>
       </c>
       <c r="D6" t="n">
-        <v>13.00946251155886</v>
+        <v>8.807347588780946</v>
       </c>
       <c r="E6" t="n">
-        <v>12.75001223813571</v>
+        <v>8.727708250587735</v>
       </c>
       <c r="F6" t="n">
-        <v>13.07050019468741</v>
+        <v>8.936593496581519</v>
       </c>
       <c r="G6" t="n">
-        <v>12.61356189031068</v>
+        <v>8.555981142321061</v>
       </c>
       <c r="H6" t="n">
-        <v>13.11683954000179</v>
+        <v>9.015448959097412</v>
       </c>
       <c r="I6" t="n">
-        <v>12.45880119563966</v>
+        <v>8.359315242059974</v>
       </c>
       <c r="J6" t="n">
-        <v>13.20624634446512</v>
+        <v>8.87548339949563</v>
       </c>
       <c r="K6" t="n">
-        <v>12.51069268746316</v>
+        <v>8.1395219710402</v>
       </c>
       <c r="L6" t="n">
-        <v>12.93392409721107</v>
+        <v>8.749811114065837</v>
       </c>
       <c r="M6" t="n">
-        <v>12.64240646508898</v>
+        <v>8.462294630459207</v>
       </c>
       <c r="N6" t="n">
-        <v>12.84647539446094</v>
+        <v>8.812432450538926</v>
       </c>
       <c r="O6" t="n">
-        <v>12.60091027777349</v>
+        <v>8.153275039415957</v>
       </c>
       <c r="P6" t="n">
-        <v>12.67444268577902</v>
+        <v>8.705722056977887</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.53673244620946</v>
+        <v>8.113940887114838</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.89021711126404</v>
+        <v>8.814555599078885</v>
       </c>
       <c r="B7" t="n">
-        <v>12.9398307379753</v>
+        <v>8.845538133310972</v>
       </c>
       <c r="C7" t="n">
-        <v>12.83674716191271</v>
+        <v>8.781386720128204</v>
       </c>
       <c r="D7" t="n">
-        <v>13.00639901052989</v>
+        <v>8.849194396838429</v>
       </c>
       <c r="E7" t="n">
-        <v>12.74912001441929</v>
+        <v>8.664435507350239</v>
       </c>
       <c r="F7" t="n">
-        <v>13.06833849830066</v>
+        <v>8.87889113189749</v>
       </c>
       <c r="G7" t="n">
-        <v>12.61586730058463</v>
+        <v>8.489904068656571</v>
       </c>
       <c r="H7" t="n">
-        <v>13.1112442793265</v>
+        <v>8.955065618065843</v>
       </c>
       <c r="I7" t="n">
-        <v>12.46762522831421</v>
+        <v>8.280363769964998</v>
       </c>
       <c r="J7" t="n">
-        <v>13.19530372956999</v>
+        <v>8.824402657490459</v>
       </c>
       <c r="K7" t="n">
-        <v>12.50812619696078</v>
+        <v>8.06763449487454</v>
       </c>
       <c r="L7" t="n">
-        <v>12.93032526195224</v>
+        <v>8.708717191251917</v>
       </c>
       <c r="M7" t="n">
-        <v>12.64154777461291</v>
+        <v>8.419203343807036</v>
       </c>
       <c r="N7" t="n">
-        <v>12.84244062707758</v>
+        <v>8.737629442978095</v>
       </c>
       <c r="O7" t="n">
-        <v>12.60514384936749</v>
+        <v>8.056743484204336</v>
       </c>
       <c r="P7" t="n">
-        <v>12.66951329944779</v>
+        <v>8.702305209742573</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.54540198645527</v>
+        <v>8.032045931468758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.89437044260434</v>
+        <v>8.762150775600167</v>
       </c>
       <c r="B8" t="n">
-        <v>12.94209183646737</v>
+        <v>8.782763667635802</v>
       </c>
       <c r="C8" t="n">
-        <v>12.84041785411513</v>
+        <v>8.73011274365374</v>
       </c>
       <c r="D8" t="n">
-        <v>13.00705889679531</v>
+        <v>8.75990670360301</v>
       </c>
       <c r="E8" t="n">
-        <v>12.74980385299926</v>
+        <v>8.615265842093258</v>
       </c>
       <c r="F8" t="n">
-        <v>13.0683492768422</v>
+        <v>8.827580696089196</v>
       </c>
       <c r="G8" t="n">
-        <v>12.61473914657005</v>
+        <v>8.4301101535219</v>
       </c>
       <c r="H8" t="n">
-        <v>13.11417125216263</v>
+        <v>8.910449723604069</v>
       </c>
       <c r="I8" t="n">
-        <v>12.4753486521359</v>
+        <v>8.206365298370654</v>
       </c>
       <c r="J8" t="n">
-        <v>13.18816354460722</v>
+        <v>8.770482948691159</v>
       </c>
       <c r="K8" t="n">
-        <v>12.5188173125533</v>
+        <v>7.989998597075217</v>
       </c>
       <c r="L8" t="n">
-        <v>12.93856246292069</v>
+        <v>8.633819389423133</v>
       </c>
       <c r="M8" t="n">
-        <v>12.64841490318998</v>
+        <v>8.330160535763834</v>
       </c>
       <c r="N8" t="n">
-        <v>12.84725025183613</v>
+        <v>8.627396470113638</v>
       </c>
       <c r="O8" t="n">
-        <v>12.60457617951302</v>
+        <v>7.943121616260498</v>
       </c>
       <c r="P8" t="n">
-        <v>12.67099475010176</v>
+        <v>8.702964516029308</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.54630019825031</v>
+        <v>7.888222974347896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12.89726388220012</v>
+        <v>8.642876495601751</v>
       </c>
       <c r="B9" t="n">
-        <v>12.94428227563156</v>
+        <v>8.673807379110913</v>
       </c>
       <c r="C9" t="n">
-        <v>12.84305021348249</v>
+        <v>8.60965353530589</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0086397495546</v>
+        <v>8.683218748483235</v>
       </c>
       <c r="E9" t="n">
-        <v>12.75315837464983</v>
+        <v>8.50600997937541</v>
       </c>
       <c r="F9" t="n">
-        <v>13.07084989847961</v>
+        <v>8.734691428327064</v>
       </c>
       <c r="G9" t="n">
-        <v>12.62125058327628</v>
+        <v>8.335835431074274</v>
       </c>
       <c r="H9" t="n">
-        <v>13.1326648342148</v>
+        <v>8.847197033000178</v>
       </c>
       <c r="I9" t="n">
-        <v>12.47579057233906</v>
+        <v>8.09594455993698</v>
       </c>
       <c r="J9" t="n">
-        <v>13.11254489000573</v>
+        <v>8.732065748635833</v>
       </c>
       <c r="K9" t="n">
-        <v>12.52430359019746</v>
+        <v>7.884439103152038</v>
       </c>
       <c r="L9" t="n">
-        <v>12.94561761716686</v>
+        <v>8.544815471336014</v>
       </c>
       <c r="M9" t="n">
-        <v>12.6569239629284</v>
+        <v>8.237491239315801</v>
       </c>
       <c r="N9" t="n">
-        <v>12.85032812425383</v>
+        <v>8.577546838280751</v>
       </c>
       <c r="O9" t="n">
-        <v>12.60602768977381</v>
+        <v>7.852206013769627</v>
       </c>
       <c r="P9" t="n">
-        <v>12.6678066970372</v>
+        <v>8.706335181441773</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.55149904812005</v>
+        <v>7.705134530004626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.89651656998664</v>
+        <v>8.336622345029411</v>
       </c>
       <c r="B10" t="n">
-        <v>12.94360202989878</v>
+        <v>8.38215215345916</v>
       </c>
       <c r="C10" t="n">
-        <v>12.84177355511779</v>
+        <v>8.356868820760067</v>
       </c>
       <c r="D10" t="n">
-        <v>13.00777866384708</v>
+        <v>8.489389992049587</v>
       </c>
       <c r="E10" t="n">
-        <v>12.75137871767991</v>
+        <v>8.406352643943539</v>
       </c>
       <c r="F10" t="n">
-        <v>13.06973491823803</v>
+        <v>8.636211729377861</v>
       </c>
       <c r="G10" t="n">
-        <v>12.62059548747376</v>
+        <v>8.233245549891446</v>
       </c>
       <c r="H10" t="n">
-        <v>13.12995822267239</v>
+        <v>8.768065087202752</v>
       </c>
       <c r="I10" t="n">
-        <v>12.47515583600389</v>
+        <v>7.99454689897035</v>
       </c>
       <c r="J10" t="n">
-        <v>13.10333402745145</v>
+        <v>8.712910622297784</v>
       </c>
       <c r="K10" t="n">
-        <v>12.52613115179645</v>
+        <v>7.76812471340495</v>
       </c>
       <c r="L10" t="n">
-        <v>12.94702122279859</v>
+        <v>8.458237921915197</v>
       </c>
       <c r="M10" t="n">
-        <v>12.65885451947989</v>
+        <v>8.134003850865222</v>
       </c>
       <c r="N10" t="n">
-        <v>12.84987063504622</v>
+        <v>8.497844303908904</v>
       </c>
       <c r="O10" t="n">
-        <v>12.60531391080068</v>
+        <v>7.777429135398041</v>
       </c>
       <c r="P10" t="n">
-        <v>12.66736836968122</v>
+        <v>8.715171100995166</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.55150743143014</v>
+        <v>7.538317278693553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.89307462238802</v>
+        <v>8.253541853378334</v>
       </c>
       <c r="B11" t="n">
-        <v>12.94153015469153</v>
+        <v>8.294618761836466</v>
       </c>
       <c r="C11" t="n">
-        <v>12.83898670332169</v>
+        <v>8.261187983337781</v>
       </c>
       <c r="D11" t="n">
-        <v>13.00867687564213</v>
+        <v>8.402278921043743</v>
       </c>
       <c r="E11" t="n">
-        <v>12.75088530000049</v>
+        <v>8.298467044522088</v>
       </c>
       <c r="F11" t="n">
-        <v>13.07316369206366</v>
+        <v>8.521498512041417</v>
       </c>
       <c r="G11" t="n">
-        <v>12.62014398634479</v>
+        <v>8.154003010781405</v>
       </c>
       <c r="H11" t="n">
-        <v>13.13366244811517</v>
+        <v>8.682100054590256</v>
       </c>
       <c r="I11" t="n">
-        <v>12.4715270603519</v>
+        <v>7.910290593803295</v>
       </c>
       <c r="J11" t="n">
-        <v>13.10618674811252</v>
+        <v>8.641076012166176</v>
       </c>
       <c r="K11" t="n">
-        <v>12.52761859052904</v>
+        <v>7.665768171958625</v>
       </c>
       <c r="L11" t="n">
-        <v>12.9463541508388</v>
+        <v>8.320958199905464</v>
       </c>
       <c r="M11" t="n">
-        <v>12.65625569335289</v>
+        <v>8.020517490112114</v>
       </c>
       <c r="N11" t="n">
-        <v>12.84853888635809</v>
+        <v>8.427613296810195</v>
       </c>
       <c r="O11" t="n">
-        <v>12.60642889104227</v>
+        <v>7.664184621559331</v>
       </c>
       <c r="P11" t="n">
-        <v>12.67030372582744</v>
+        <v>8.631964824642377</v>
       </c>
       <c r="Q11" t="n">
-        <v>12.55166910955325</v>
+        <v>7.396309388741798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.88995243818843</v>
+        <v>8.149767651501636</v>
       </c>
       <c r="B12" t="n">
-        <v>12.93855767245779</v>
+        <v>8.193903498067996</v>
       </c>
       <c r="C12" t="n">
-        <v>12.83538906567859</v>
+        <v>8.164484461601599</v>
       </c>
       <c r="D12" t="n">
-        <v>13.00746488852668</v>
+        <v>8.324433989730469</v>
       </c>
       <c r="E12" t="n">
-        <v>12.74780862519852</v>
+        <v>8.223822027407849</v>
       </c>
       <c r="F12" t="n">
-        <v>13.07231937297631</v>
+        <v>8.456374849956548</v>
       </c>
       <c r="G12" t="n">
-        <v>12.6187559497175</v>
+        <v>8.073802806502796</v>
       </c>
       <c r="H12" t="n">
-        <v>13.13001331299582</v>
+        <v>8.59212571056773</v>
       </c>
       <c r="I12" t="n">
-        <v>12.47157616259669</v>
+        <v>7.824958738288293</v>
       </c>
       <c r="J12" t="n">
-        <v>13.12556656580247</v>
+        <v>8.582708264639772</v>
       </c>
       <c r="K12" t="n">
-        <v>12.53460308544734</v>
+        <v>7.585633594480908</v>
       </c>
       <c r="L12" t="n">
-        <v>12.94619965841005</v>
+        <v>8.244419728054387</v>
       </c>
       <c r="M12" t="n">
-        <v>12.65606527245234</v>
+        <v>7.936648261539208</v>
       </c>
       <c r="N12" t="n">
-        <v>12.84871254063847</v>
+        <v>8.34103757035607</v>
       </c>
       <c r="O12" t="n">
-        <v>12.60557139818193</v>
+        <v>7.613545037493488</v>
       </c>
       <c r="P12" t="n">
-        <v>12.67349896458635</v>
+        <v>8.450641619711982</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.54937807066801</v>
+        <v>7.304665207229916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.89455128257908</v>
+        <v>8.259412413780321</v>
       </c>
       <c r="B13" t="n">
-        <v>12.94283316060221</v>
+        <v>8.286986607954987</v>
       </c>
       <c r="C13" t="n">
-        <v>12.83950407331564</v>
+        <v>8.225152793092597</v>
       </c>
       <c r="D13" t="n">
-        <v>13.01130204931512</v>
+        <v>8.300454685871317</v>
       </c>
       <c r="E13" t="n">
-        <v>12.75000145959417</v>
+        <v>8.131757348245808</v>
       </c>
       <c r="F13" t="n">
-        <v>13.07380441647746</v>
+        <v>8.375497717379853</v>
       </c>
       <c r="G13" t="n">
-        <v>12.61940385982567</v>
+        <v>7.964825857688738</v>
       </c>
       <c r="H13" t="n">
-        <v>13.1300348700789</v>
+        <v>8.503960964814237</v>
       </c>
       <c r="I13" t="n">
-        <v>12.47293306121508</v>
+        <v>7.708237219313451</v>
       </c>
       <c r="J13" t="n">
-        <v>13.14377631292741</v>
+        <v>8.522969038505842</v>
       </c>
       <c r="K13" t="n">
-        <v>12.53216953029062</v>
+        <v>7.46659994608576</v>
       </c>
       <c r="L13" t="n">
-        <v>12.94671463317255</v>
+        <v>8.157083216834367</v>
       </c>
       <c r="M13" t="n">
-        <v>12.65608682953542</v>
+        <v>7.843755955499256</v>
       </c>
       <c r="N13" t="n">
-        <v>12.84659994649652</v>
+        <v>8.299076523052591</v>
       </c>
       <c r="O13" t="n">
-        <v>12.60512588513159</v>
+        <v>7.531795919182722</v>
       </c>
       <c r="P13" t="n">
-        <v>12.67030133059598</v>
+        <v>8.314660457642116</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.5439025715654</v>
+        <v>7.340964727645359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.89344827849476</v>
+        <v>7.950316865791597</v>
       </c>
       <c r="B14" t="n">
-        <v>12.94252896620763</v>
+        <v>8.003645933382872</v>
       </c>
       <c r="C14" t="n">
-        <v>12.83892322968818</v>
+        <v>7.954986698799493</v>
       </c>
       <c r="D14" t="n">
-        <v>13.01192480949302</v>
+        <v>8.135085477768808</v>
       </c>
       <c r="E14" t="n">
-        <v>12.75135356774965</v>
+        <v>7.988850735715176</v>
       </c>
       <c r="F14" t="n">
-        <v>13.07538646685247</v>
+        <v>8.2501286520764</v>
       </c>
       <c r="G14" t="n">
-        <v>12.61763498139729</v>
+        <v>7.847452931949489</v>
       </c>
       <c r="H14" t="n">
-        <v>13.12652944884676</v>
+        <v>8.407628112971981</v>
       </c>
       <c r="I14" t="n">
-        <v>12.46568868368409</v>
+        <v>7.576448880633888</v>
       </c>
       <c r="J14" t="n">
-        <v>13.08745723576218</v>
+        <v>8.467897822413118</v>
       </c>
       <c r="K14" t="n">
-        <v>12.52627127283647</v>
+        <v>7.324057319237851</v>
       </c>
       <c r="L14" t="n">
-        <v>12.95126317770267</v>
+        <v>8.043960841763985</v>
       </c>
       <c r="M14" t="n">
-        <v>12.65851798946068</v>
+        <v>7.733155351018692</v>
       </c>
       <c r="N14" t="n">
-        <v>12.85097244151481</v>
+        <v>8.109899977615488</v>
       </c>
       <c r="O14" t="n">
-        <v>12.60859298266047</v>
+        <v>7.366870907297359</v>
       </c>
       <c r="P14" t="n">
-        <v>12.66619710150048</v>
+        <v>8.274343726294312</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.54994095005957</v>
+        <v>7.32089143375039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.89569620321383</v>
+        <v>7.88385271553296</v>
       </c>
       <c r="B15" t="n">
-        <v>12.94462239849795</v>
+        <v>7.920999307804355</v>
       </c>
       <c r="C15" t="n">
-        <v>12.84122624473068</v>
+        <v>7.882531064681668</v>
       </c>
       <c r="D15" t="n">
-        <v>13.01298469941118</v>
+        <v>8.020718016448173</v>
       </c>
       <c r="E15" t="n">
-        <v>12.75380987760517</v>
+        <v>7.905200870800805</v>
       </c>
       <c r="F15" t="n">
-        <v>13.07479005422056</v>
+        <v>8.131193443882591</v>
       </c>
       <c r="G15" t="n">
-        <v>12.62229131134281</v>
+        <v>7.753146003756982</v>
       </c>
       <c r="H15" t="n">
-        <v>13.13107799337689</v>
+        <v>8.280427573799198</v>
       </c>
       <c r="I15" t="n">
-        <v>12.47073663397226</v>
+        <v>7.454971849216652</v>
       </c>
       <c r="J15" t="n">
-        <v>13.098699254589</v>
+        <v>8.427965129381644</v>
       </c>
       <c r="K15" t="n">
-        <v>12.51756460650314</v>
+        <v>7.233062721523684</v>
       </c>
       <c r="L15" t="n">
-        <v>12.95513506934719</v>
+        <v>7.885705457347023</v>
       </c>
       <c r="M15" t="n">
-        <v>12.66525936838645</v>
+        <v>7.583957680435914</v>
       </c>
       <c r="N15" t="n">
-        <v>12.85739525465727</v>
+        <v>8.054409479183732</v>
       </c>
       <c r="O15" t="n">
-        <v>12.6077474659574</v>
+        <v>7.201745976731501</v>
       </c>
       <c r="P15" t="n">
-        <v>12.67215404212524</v>
+        <v>8.282428583570832</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.5469133775024</v>
+        <v>7.172498299134098</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.89359438761342</v>
+        <v>7.711915966096769</v>
       </c>
       <c r="B16" t="n">
-        <v>12.94237207854742</v>
+        <v>7.756013530362612</v>
       </c>
       <c r="C16" t="n">
-        <v>12.8398070700945</v>
+        <v>7.715608081302491</v>
       </c>
       <c r="D16" t="n">
-        <v>13.01126612084332</v>
+        <v>7.855351238967918</v>
       </c>
       <c r="E16" t="n">
-        <v>12.75289250395849</v>
+        <v>7.75434916177333</v>
       </c>
       <c r="F16" t="n">
-        <v>13.07233494198076</v>
+        <v>7.968925102122214</v>
       </c>
       <c r="G16" t="n">
-        <v>12.62123022380893</v>
+        <v>7.602974868960977</v>
       </c>
       <c r="H16" t="n">
-        <v>13.13075822997785</v>
+        <v>8.216460280252265</v>
       </c>
       <c r="I16" t="n">
-        <v>12.46762283308276</v>
+        <v>7.263740820318301</v>
       </c>
       <c r="J16" t="n">
-        <v>13.10363103615168</v>
+        <v>8.389772154229362</v>
       </c>
       <c r="K16" t="n">
-        <v>12.5140903232799</v>
+        <v>7.074945274919708</v>
       </c>
       <c r="L16" t="n">
-        <v>12.95177575723371</v>
+        <v>7.79471936681075</v>
       </c>
       <c r="M16" t="n">
-        <v>12.66334438083941</v>
+        <v>7.505658222760909</v>
       </c>
       <c r="N16" t="n">
-        <v>12.85584314467542</v>
+        <v>7.960120173002577</v>
       </c>
       <c r="O16" t="n">
-        <v>12.60915945489921</v>
+        <v>7.181460611044763</v>
       </c>
       <c r="P16" t="n">
-        <v>12.67507622449846</v>
+        <v>8.311493356843528</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.55230624111987</v>
+        <v>7.003768148108144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.89395127709999</v>
+        <v>7.512375855018852</v>
       </c>
       <c r="B17" t="n">
-        <v>12.94285831053248</v>
+        <v>7.573416679370466</v>
       </c>
       <c r="C17" t="n">
-        <v>12.84027054738075</v>
+        <v>7.522868851294758</v>
       </c>
       <c r="D17" t="n">
-        <v>13.0126182289988</v>
+        <v>7.715185153030078</v>
       </c>
       <c r="E17" t="n">
-        <v>12.7530362178457</v>
+        <v>7.560010582321643</v>
       </c>
       <c r="F17" t="n">
-        <v>13.07762121779855</v>
+        <v>7.856055511766376</v>
       </c>
       <c r="G17" t="n">
-        <v>12.62115836686533</v>
+        <v>7.448030599711227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.13890920261398</v>
+        <v>8.155086460651681</v>
       </c>
       <c r="I17" t="n">
-        <v>12.47157017451806</v>
+        <v>7.162797685713403</v>
       </c>
       <c r="J17" t="n">
-        <v>13.09897590382188</v>
+        <v>8.333560976298926</v>
       </c>
       <c r="K17" t="n">
-        <v>12.50619803564074</v>
+        <v>6.903838582983685</v>
       </c>
       <c r="L17" t="n">
-        <v>12.95531830455338</v>
+        <v>7.735675298641821</v>
       </c>
       <c r="M17" t="n">
-        <v>12.66350126849961</v>
+        <v>7.413558907231732</v>
       </c>
       <c r="N17" t="n">
-        <v>12.8521101764552</v>
+        <v>7.927056418464435</v>
       </c>
       <c r="O17" t="n">
-        <v>12.60937502573003</v>
+        <v>7.072957633570478</v>
       </c>
       <c r="P17" t="n">
-        <v>12.67732654444898</v>
+        <v>8.22358139580458</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.54593971591657</v>
+        <v>6.842132375789696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.89555009409517</v>
+        <v>7.377117803069922</v>
       </c>
       <c r="B18" t="n">
-        <v>12.94463078180804</v>
+        <v>7.434109210744293</v>
       </c>
       <c r="C18" t="n">
-        <v>12.84176397419198</v>
+        <v>7.377996473015194</v>
       </c>
       <c r="D18" t="n">
-        <v>13.01406015833378</v>
+        <v>7.538910350523834</v>
       </c>
       <c r="E18" t="n">
-        <v>12.75394520818229</v>
+        <v>7.410001691561176</v>
       </c>
       <c r="F18" t="n">
-        <v>13.07822122327764</v>
+        <v>7.684168590086419</v>
       </c>
       <c r="G18" t="n">
-        <v>12.62317874459632</v>
+        <v>7.268945390222351</v>
       </c>
       <c r="H18" t="n">
-        <v>13.14051520530352</v>
+        <v>8.010264517783913</v>
       </c>
       <c r="I18" t="n">
-        <v>12.47906964419885</v>
+        <v>6.934187332462715</v>
       </c>
       <c r="J18" t="n">
-        <v>13.09670761963545</v>
+        <v>8.255390949259013</v>
       </c>
       <c r="K18" t="n">
-        <v>12.50117643289856</v>
+        <v>6.652132457063628</v>
       </c>
       <c r="L18" t="n">
-        <v>12.96059739467681</v>
+        <v>7.656472864798991</v>
       </c>
       <c r="M18" t="n">
-        <v>12.66986779370291</v>
+        <v>7.334239195865086</v>
       </c>
       <c r="N18" t="n">
-        <v>12.8561425486071</v>
+        <v>7.853909272314993</v>
       </c>
       <c r="O18" t="n">
-        <v>12.61664814603846</v>
+        <v>6.990208921857241</v>
       </c>
       <c r="P18" t="n">
-        <v>12.68118885516769</v>
+        <v>8.181479980065859</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.55402601730345</v>
+        <v>6.597331040041236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.90350585536784</v>
+        <v>7.161336274082434</v>
       </c>
       <c r="B19" t="n">
-        <v>12.95369793047511</v>
+        <v>7.216227016472707</v>
       </c>
       <c r="C19" t="n">
-        <v>12.85531260090848</v>
+        <v>7.181180481829846</v>
       </c>
       <c r="D19" t="n">
-        <v>13.02078836348655</v>
+        <v>7.350702408055446</v>
       </c>
       <c r="E19" t="n">
-        <v>12.77134057661305</v>
+        <v>7.263564600204795</v>
       </c>
       <c r="F19" t="n">
-        <v>13.08000207786329</v>
+        <v>7.499477758021376</v>
       </c>
       <c r="G19" t="n">
-        <v>12.64348551685876</v>
+        <v>7.13328385497905</v>
       </c>
       <c r="H19" t="n">
-        <v>13.13756667538431</v>
+        <v>7.934334309152212</v>
       </c>
       <c r="I19" t="n">
-        <v>12.48020378629206</v>
+        <v>6.750854610582793</v>
       </c>
       <c r="J19" t="n">
-        <v>13.06318036736563</v>
+        <v>8.206700116586315</v>
       </c>
       <c r="K19" t="n">
-        <v>12.4906134621888</v>
+        <v>6.415292016856669</v>
       </c>
       <c r="L19" t="n">
-        <v>12.96293753580684</v>
+        <v>7.507035170268507</v>
       </c>
       <c r="M19" t="n">
-        <v>12.68294336220735</v>
+        <v>7.22431248140479</v>
       </c>
       <c r="N19" t="n">
-        <v>12.86654863165667</v>
+        <v>7.692456404321251</v>
       </c>
       <c r="O19" t="n">
-        <v>12.58040350368469</v>
+        <v>6.902118917738096</v>
       </c>
       <c r="P19" t="n">
-        <v>12.74963139633461</v>
+        <v>8.132332190409175</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.47814867770499</v>
+        <v>6.485231956940312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12.90196691915899</v>
+        <v>6.974724035124618</v>
       </c>
       <c r="B20" t="n">
-        <v>12.95274462835664</v>
+        <v>7.021536604449573</v>
       </c>
       <c r="C20" t="n">
-        <v>12.85471020019794</v>
+        <v>6.983562385300265</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0213775904241</v>
+        <v>7.153894924047992</v>
       </c>
       <c r="E20" t="n">
-        <v>12.77334179249242</v>
+        <v>7.052532507104063</v>
       </c>
       <c r="F20" t="n">
-        <v>13.08265719192945</v>
+        <v>7.373908166381866</v>
       </c>
       <c r="G20" t="n">
-        <v>12.64564002755115</v>
+        <v>6.976418178836527</v>
       </c>
       <c r="H20" t="n">
-        <v>13.14680268786886</v>
+        <v>7.817573900221285</v>
       </c>
       <c r="I20" t="n">
-        <v>12.47893191839027</v>
+        <v>6.631596129629035</v>
       </c>
       <c r="J20" t="n">
-        <v>13.07239003230419</v>
+        <v>8.096659162880023</v>
       </c>
       <c r="K20" t="n">
-        <v>12.44049444164086</v>
+        <v>6.257270579831775</v>
       </c>
       <c r="L20" t="n">
-        <v>12.95895426589973</v>
+        <v>7.4155240653251</v>
       </c>
       <c r="M20" t="n">
-        <v>12.67753013912253</v>
+        <v>7.101937942719804</v>
       </c>
       <c r="N20" t="n">
-        <v>12.86928997405515</v>
+        <v>7.640588748360944</v>
       </c>
       <c r="O20" t="n">
-        <v>12.56967047154173</v>
+        <v>6.769055110030092</v>
       </c>
       <c r="P20" t="n">
-        <v>12.76394529950049</v>
+        <v>7.994246717121827</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.46082157337066</v>
+        <v>6.422144548649778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12.91160652814345</v>
+        <v>6.828517245226923</v>
       </c>
       <c r="B21" t="n">
-        <v>12.96108003381468</v>
+        <v>6.858510516201123</v>
       </c>
       <c r="C21" t="n">
-        <v>12.86307315081769</v>
+        <v>6.84823019937255</v>
       </c>
       <c r="D21" t="n">
-        <v>13.02491654489659</v>
+        <v>7.079615715583167</v>
       </c>
       <c r="E21" t="n">
-        <v>12.77643882676174</v>
+        <v>6.942589385943545</v>
       </c>
       <c r="F21" t="n">
-        <v>13.08018291783802</v>
+        <v>7.228825539277222</v>
       </c>
       <c r="G21" t="n">
-        <v>12.64192622118256</v>
+        <v>6.873470996182176</v>
       </c>
       <c r="H21" t="n">
-        <v>13.14376194153869</v>
+        <v>7.629089474471364</v>
       </c>
       <c r="I21" t="n">
-        <v>12.46603838747629</v>
+        <v>6.466776242156211</v>
       </c>
       <c r="J21" t="n">
-        <v>13.0817050874267</v>
+        <v>7.918028479752879</v>
       </c>
       <c r="K21" t="n">
-        <v>12.44696396179666</v>
+        <v>6.135812993392581</v>
       </c>
       <c r="L21" t="n">
-        <v>12.95828120586131</v>
+        <v>7.28406143002774</v>
       </c>
       <c r="M21" t="n">
-        <v>12.67696366688378</v>
+        <v>7.017447082505118</v>
       </c>
       <c r="N21" t="n">
-        <v>12.86351028055795</v>
+        <v>7.518126707274769</v>
       </c>
       <c r="O21" t="n">
-        <v>12.56897824965168</v>
+        <v>6.641909867513617</v>
       </c>
       <c r="P21" t="n">
-        <v>12.74923259029761</v>
+        <v>7.966897355505774</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.46243116890738</v>
+        <v>6.302705593993568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.52481137926559</v>
+        <v>6.354866139935632</v>
       </c>
       <c r="B22" t="n">
-        <v>12.58600355482288</v>
+        <v>6.385898501923951</v>
       </c>
       <c r="C22" t="n">
-        <v>12.57030401026117</v>
+        <v>6.37799351069432</v>
       </c>
       <c r="D22" t="n">
-        <v>13.02518720605083</v>
+        <v>6.608638294772651</v>
       </c>
       <c r="E22" t="n">
-        <v>12.78254546935234</v>
+        <v>6.485684660335352</v>
       </c>
       <c r="F22" t="n">
-        <v>13.32581989146907</v>
+        <v>6.760972075720264</v>
       </c>
       <c r="G22" t="n">
-        <v>12.89310216754973</v>
+        <v>6.542171713891758</v>
       </c>
       <c r="H22" t="n">
-        <v>14.11229773206013</v>
+        <v>7.160165321810968</v>
       </c>
       <c r="I22" t="n">
-        <v>12.31098667218368</v>
+        <v>6.247015784536883</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38446668450116</v>
+        <v>7.29835835013311</v>
       </c>
       <c r="K22" t="n">
-        <v>12.00733479751836</v>
+        <v>6.092980568010596</v>
       </c>
       <c r="L22" t="n">
-        <v>13.62764540215113</v>
+        <v>6.913942679698752</v>
       </c>
       <c r="M22" t="n">
-        <v>13.45531448715325</v>
+        <v>6.827636144659395</v>
       </c>
       <c r="N22" t="n">
-        <v>13.75497830144856</v>
+        <v>6.976827738686536</v>
       </c>
       <c r="O22" t="n">
-        <v>13.44218622355683</v>
+        <v>6.822884278150385</v>
       </c>
       <c r="P22" t="n">
-        <v>13.97318867732175</v>
+        <v>7.085685587010087</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.78562049743269</v>
+        <v>6.999207693101734</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12.72967432786437</v>
+        <v>6.459023772473096</v>
       </c>
       <c r="B23" t="n">
-        <v>12.76990583297243</v>
+        <v>6.479433099894853</v>
       </c>
       <c r="C23" t="n">
-        <v>12.70440942649327</v>
+        <v>6.446161527153887</v>
       </c>
       <c r="D23" t="n">
-        <v>12.98243711506946</v>
+        <v>6.587256110793231</v>
       </c>
       <c r="E23" t="n">
-        <v>12.86952829958477</v>
+        <v>6.52979923895698</v>
       </c>
       <c r="F23" t="n">
-        <v>13.60066311982789</v>
+        <v>6.900734678363732</v>
       </c>
       <c r="G23" t="n">
-        <v>12.89993576288646</v>
+        <v>6.545264680711561</v>
       </c>
       <c r="H23" t="n">
-        <v>14.36180420210424</v>
+        <v>7.28692591835555</v>
       </c>
       <c r="I23" t="n">
-        <v>12.60606481586134</v>
+        <v>6.396134459896365</v>
       </c>
       <c r="J23" t="n">
-        <v>14.73616570450718</v>
+        <v>7.476828004535845</v>
       </c>
       <c r="K23" t="n">
-        <v>12.33584917467061</v>
+        <v>6.258996929288565</v>
       </c>
       <c r="L23" t="n">
-        <v>13.90066226652669</v>
+        <v>7.052993110021433</v>
       </c>
       <c r="M23" t="n">
-        <v>13.33843318030299</v>
+        <v>6.767791794112926</v>
       </c>
       <c r="N23" t="n">
-        <v>14.36214791781781</v>
+        <v>7.287023143245761</v>
       </c>
       <c r="O23" t="n">
-        <v>12.62881113135913</v>
+        <v>6.407825145288546</v>
       </c>
       <c r="P23" t="n">
-        <v>14.84104450654415</v>
+        <v>7.529975990769104</v>
       </c>
       <c r="Q23" t="n">
-        <v>12.32723232951678</v>
+        <v>6.254912876244184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.92095870935348</v>
+        <v>6.555955772701271</v>
       </c>
       <c r="B24" t="n">
-        <v>12.97769335917588</v>
+        <v>6.584751354559198</v>
       </c>
       <c r="C24" t="n">
-        <v>12.87179179330829</v>
+        <v>6.531007258217839</v>
       </c>
       <c r="D24" t="n">
-        <v>13.24027659534017</v>
+        <v>6.717960391946954</v>
       </c>
       <c r="E24" t="n">
-        <v>12.90113337861319</v>
+        <v>6.545896034842363</v>
       </c>
       <c r="F24" t="n">
-        <v>13.75825018761399</v>
+        <v>6.980787829995899</v>
       </c>
       <c r="G24" t="n">
-        <v>12.90624120968769</v>
+        <v>6.548490116444276</v>
       </c>
       <c r="H24" t="n">
-        <v>14.45215951822315</v>
+        <v>7.332895061757934</v>
       </c>
       <c r="I24" t="n">
-        <v>12.78029395178609</v>
+        <v>6.48457022003132</v>
       </c>
       <c r="J24" t="n">
-        <v>14.85718237846184</v>
+        <v>7.538504436607207</v>
       </c>
       <c r="K24" t="n">
-        <v>12.55047269144224</v>
+        <v>6.367884552734743</v>
       </c>
       <c r="L24" t="n">
-        <v>13.94699921660961</v>
+        <v>7.076562854030575</v>
       </c>
       <c r="M24" t="n">
-        <v>13.29287468044244</v>
+        <v>6.744675968809951</v>
       </c>
       <c r="N24" t="n">
-        <v>14.34432500057261</v>
+        <v>7.278107620813509</v>
       </c>
       <c r="O24" t="n">
-        <v>12.70392678735539</v>
+        <v>6.445870460138821</v>
       </c>
       <c r="P24" t="n">
-        <v>14.81132806751678</v>
+        <v>7.515230620857641</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.39720781881391</v>
+        <v>6.290249262590984</v>
       </c>
     </row>
   </sheetData>
@@ -4364,1221 +4364,1221 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.838804665731229</v>
+        <v>3.092246444132565</v>
       </c>
       <c r="B2" t="n">
-        <v>4.785412561402133</v>
+        <v>3.054405605379514</v>
       </c>
       <c r="C2" t="n">
-        <v>4.783026312066622</v>
+        <v>3.046956355822742</v>
       </c>
       <c r="D2" t="n">
-        <v>4.804536089326565</v>
+        <v>3.065783955811895</v>
       </c>
       <c r="E2" t="n">
-        <v>4.796996499518933</v>
+        <v>3.045214511149074</v>
       </c>
       <c r="F2" t="n">
-        <v>5.099844774031619</v>
+        <v>3.346687931573122</v>
       </c>
       <c r="G2" t="n">
-        <v>5.071110978708039</v>
+        <v>3.277968771517179</v>
       </c>
       <c r="H2" t="n">
-        <v>5.465507993411317</v>
+        <v>3.702800828811806</v>
       </c>
       <c r="I2" t="n">
-        <v>5.402236756952421</v>
+        <v>3.514293008322678</v>
       </c>
       <c r="J2" t="n">
-        <v>5.647184502732735</v>
+        <v>3.967165939264978</v>
       </c>
       <c r="K2" t="n">
-        <v>5.591091774939861</v>
+        <v>3.724979041579819</v>
       </c>
       <c r="L2" t="n">
-        <v>5.789219332691511</v>
+        <v>3.859545581497131</v>
       </c>
       <c r="M2" t="n">
-        <v>5.767801173034664</v>
+        <v>3.819837721024267</v>
       </c>
       <c r="N2" t="n">
-        <v>6.373913893525075</v>
+        <v>4.155400922405954</v>
       </c>
       <c r="O2" t="n">
-        <v>6.332681780477337</v>
+        <v>4.110894102117885</v>
       </c>
       <c r="P2" t="n">
-        <v>6.915786506433666</v>
+        <v>4.529530199456103</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.845597841537176</v>
+        <v>4.514422059173043</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.834318397218897</v>
+        <v>3.013900500806928</v>
       </c>
       <c r="B3" t="n">
-        <v>4.782936490887117</v>
+        <v>2.980281349083462</v>
       </c>
       <c r="C3" t="n">
-        <v>4.778749626306467</v>
+        <v>2.974554803050097</v>
       </c>
       <c r="D3" t="n">
-        <v>4.805641488642336</v>
+        <v>3.020139604308369</v>
       </c>
       <c r="E3" t="n">
-        <v>4.790994648304423</v>
+        <v>3.002561951813977</v>
       </c>
       <c r="F3" t="n">
-        <v>5.103323847717771</v>
+        <v>3.315131770488797</v>
       </c>
       <c r="G3" t="n">
-        <v>5.073534952938942</v>
+        <v>3.240757160100455</v>
       </c>
       <c r="H3" t="n">
-        <v>5.473612259034102</v>
+        <v>3.68729315499554</v>
       </c>
       <c r="I3" t="n">
-        <v>5.429698085566351</v>
+        <v>3.488040161171523</v>
       </c>
       <c r="J3" t="n">
-        <v>5.679348868305534</v>
+        <v>3.961540567882988</v>
       </c>
       <c r="K3" t="n">
-        <v>5.717867782924365</v>
+        <v>3.73261301842799</v>
       </c>
       <c r="L3" t="n">
-        <v>5.801057165342378</v>
+        <v>3.818911046289454</v>
       </c>
       <c r="M3" t="n">
-        <v>5.782552205940803</v>
+        <v>3.781703688461677</v>
       </c>
       <c r="N3" t="n">
-        <v>6.401978221657413</v>
+        <v>4.117306691282794</v>
       </c>
       <c r="O3" t="n">
-        <v>6.364253326265405</v>
+        <v>4.09289352135108</v>
       </c>
       <c r="P3" t="n">
-        <v>6.944626889556925</v>
+        <v>4.483406407712729</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.863362674419632</v>
+        <v>4.502024974187931</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.834059712221923</v>
+        <v>3.034468122503058</v>
       </c>
       <c r="B4" t="n">
-        <v>4.782846669707612</v>
+        <v>2.997747192954112</v>
       </c>
       <c r="C4" t="n">
-        <v>4.778810704708531</v>
+        <v>2.988375321193439</v>
       </c>
       <c r="D4" t="n">
-        <v>4.804257044862236</v>
+        <v>3.019017872137572</v>
       </c>
       <c r="E4" t="n">
-        <v>4.790091047238605</v>
+        <v>2.992261278524017</v>
       </c>
       <c r="F4" t="n">
-        <v>5.099984296263783</v>
+        <v>3.307090968240654</v>
       </c>
       <c r="G4" t="n">
-        <v>5.072603207903545</v>
+        <v>3.233959924963653</v>
       </c>
       <c r="H4" t="n">
-        <v>5.466268479397791</v>
+        <v>3.678255189967181</v>
       </c>
       <c r="I4" t="n">
-        <v>5.425635174213417</v>
+        <v>3.513755840804269</v>
       </c>
       <c r="J4" t="n">
-        <v>5.679937496435222</v>
+        <v>3.934947129788316</v>
       </c>
       <c r="K4" t="n">
-        <v>5.679997976029422</v>
+        <v>3.739841992842881</v>
       </c>
       <c r="L4" t="n">
-        <v>5.802678138228508</v>
+        <v>3.797824486741829</v>
       </c>
       <c r="M4" t="n">
-        <v>5.785588760615928</v>
+        <v>3.760444554733929</v>
       </c>
       <c r="N4" t="n">
-        <v>6.400588388606542</v>
+        <v>4.082096089637703</v>
       </c>
       <c r="O4" t="n">
-        <v>6.362993434520885</v>
+        <v>4.049818033743569</v>
       </c>
       <c r="P4" t="n">
-        <v>6.939389715983934</v>
+        <v>4.44657336571226</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.85075717008793</v>
+        <v>4.476703055360536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.836842372362981</v>
+        <v>2.947849252503902</v>
       </c>
       <c r="B5" t="n">
-        <v>4.784893394984595</v>
+        <v>2.917634794904474</v>
       </c>
       <c r="C5" t="n">
-        <v>4.780774794500369</v>
+        <v>2.907511860866928</v>
       </c>
       <c r="D5" t="n">
-        <v>4.806716348757077</v>
+        <v>2.981509117150144</v>
       </c>
       <c r="E5" t="n">
-        <v>4.792267115014075</v>
+        <v>2.960860373436246</v>
       </c>
       <c r="F5" t="n">
-        <v>5.099399859789139</v>
+        <v>3.312976416203956</v>
       </c>
       <c r="G5" t="n">
-        <v>5.074100227561958</v>
+        <v>3.230439776282489</v>
       </c>
       <c r="H5" t="n">
-        <v>5.458667212380233</v>
+        <v>3.680863551474844</v>
       </c>
       <c r="I5" t="n">
-        <v>5.429429220835699</v>
+        <v>3.520319128549003</v>
       </c>
       <c r="J5" t="n">
-        <v>5.663652916591005</v>
+        <v>3.948824463726875</v>
       </c>
       <c r="K5" t="n">
-        <v>5.688683085279671</v>
+        <v>3.742170528963409</v>
       </c>
       <c r="L5" t="n">
-        <v>5.799366131936234</v>
+        <v>3.818098914628419</v>
       </c>
       <c r="M5" t="n">
-        <v>5.782156992750981</v>
+        <v>3.758252133459695</v>
       </c>
       <c r="N5" t="n">
-        <v>6.400923721010027</v>
+        <v>4.193432868833825</v>
       </c>
       <c r="O5" t="n">
-        <v>6.361052099427854</v>
+        <v>4.028741196684965</v>
       </c>
       <c r="P5" t="n">
-        <v>6.947571227821093</v>
+        <v>4.455638675240991</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.847845766256249</v>
+        <v>4.450391873275255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.836117814848309</v>
+        <v>3.021262551790294</v>
       </c>
       <c r="B6" t="n">
-        <v>4.783831708642849</v>
+        <v>2.985969916644089</v>
       </c>
       <c r="C6" t="n">
-        <v>4.781022700955802</v>
+        <v>2.97564250650932</v>
       </c>
       <c r="D6" t="n">
-        <v>4.805349869212877</v>
+        <v>3.023179401266339</v>
       </c>
       <c r="E6" t="n">
-        <v>4.795303669689199</v>
+        <v>3.005387854013485</v>
       </c>
       <c r="F6" t="n">
-        <v>5.105952614237944</v>
+        <v>3.341806938256802</v>
       </c>
       <c r="G6" t="n">
-        <v>5.080816456557463</v>
+        <v>3.249983498353595</v>
       </c>
       <c r="H6" t="n">
-        <v>5.474123042141552</v>
+        <v>3.695055650995458</v>
       </c>
       <c r="I6" t="n">
-        <v>5.438451458913023</v>
+        <v>3.521669035384011</v>
       </c>
       <c r="J6" t="n">
-        <v>5.666270305761774</v>
+        <v>3.95449206717055</v>
       </c>
       <c r="K6" t="n">
-        <v>5.66688528143745</v>
+        <v>3.75997605229423</v>
       </c>
       <c r="L6" t="n">
-        <v>5.805723675021583</v>
+        <v>3.836107091089772</v>
       </c>
       <c r="M6" t="n">
-        <v>5.788851664663405</v>
+        <v>3.7644632848052</v>
       </c>
       <c r="N6" t="n">
-        <v>6.402090797535726</v>
+        <v>4.197755730514784</v>
       </c>
       <c r="O6" t="n">
-        <v>6.358443692375035</v>
+        <v>4.01895460000199</v>
       </c>
       <c r="P6" t="n">
-        <v>6.936927418049776</v>
+        <v>4.490751140512526</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.850593096733369</v>
+        <v>4.418978815076208</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.834221390345031</v>
+        <v>3.092198743170806</v>
       </c>
       <c r="B7" t="n">
-        <v>4.78212211219294</v>
+        <v>3.051501923267838</v>
       </c>
       <c r="C7" t="n">
-        <v>4.779583166852272</v>
+        <v>3.043596932038207</v>
       </c>
       <c r="D7" t="n">
-        <v>4.804503753701942</v>
+        <v>3.056677933360389</v>
       </c>
       <c r="E7" t="n">
-        <v>4.796054574749859</v>
+        <v>3.030453646020733</v>
       </c>
       <c r="F7" t="n">
-        <v>5.107487957599613</v>
+        <v>3.331722286519776</v>
       </c>
       <c r="G7" t="n">
-        <v>5.083030848036187</v>
+        <v>3.255656570697345</v>
       </c>
       <c r="H7" t="n">
-        <v>5.473250579084629</v>
+        <v>3.678263393317293</v>
       </c>
       <c r="I7" t="n">
-        <v>5.439466438241427</v>
+        <v>3.531106837773359</v>
       </c>
       <c r="J7" t="n">
-        <v>5.661316368308154</v>
+        <v>3.942547381752696</v>
       </c>
       <c r="K7" t="n">
-        <v>5.664026572697745</v>
+        <v>3.732310709784994</v>
       </c>
       <c r="L7" t="n">
-        <v>5.806291344876054</v>
+        <v>3.846004584913143</v>
       </c>
       <c r="M7" t="n">
-        <v>5.789832511943597</v>
+        <v>3.785183124220064</v>
       </c>
       <c r="N7" t="n">
-        <v>6.400257247858102</v>
+        <v>4.121334840015304</v>
       </c>
       <c r="O7" t="n">
-        <v>6.358715551145003</v>
+        <v>3.976237629177129</v>
       </c>
       <c r="P7" t="n">
-        <v>6.938880130492209</v>
+        <v>4.47596718447276</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.863058480025042</v>
+        <v>4.345539994256136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.832957905753331</v>
+        <v>3.058983378569492</v>
       </c>
       <c r="B8" t="n">
-        <v>4.780135267702295</v>
+        <v>3.020915276635575</v>
       </c>
       <c r="C8" t="n">
-        <v>4.778584954144042</v>
+        <v>3.016889862353102</v>
       </c>
       <c r="D8" t="n">
-        <v>4.801554026167006</v>
+        <v>3.050546992549307</v>
       </c>
       <c r="E8" t="n">
-        <v>4.794711448712331</v>
+        <v>3.033228808980663</v>
       </c>
       <c r="F8" t="n">
-        <v>5.102838813348446</v>
+        <v>3.348419142274423</v>
       </c>
       <c r="G8" t="n">
-        <v>5.081556583076582</v>
+        <v>3.24576484960183</v>
       </c>
       <c r="H8" t="n">
-        <v>5.467363698979886</v>
+        <v>3.713899961512616</v>
       </c>
       <c r="I8" t="n">
-        <v>5.440402374931867</v>
+        <v>3.5024528396618</v>
       </c>
       <c r="J8" t="n">
-        <v>5.656496563815927</v>
+        <v>3.961321204224452</v>
       </c>
       <c r="K8" t="n">
-        <v>5.687739364087007</v>
+        <v>3.733972040096456</v>
       </c>
       <c r="L8" t="n">
-        <v>5.798288876590041</v>
+        <v>3.871829642547374</v>
       </c>
       <c r="M8" t="n">
-        <v>5.783961799651165</v>
+        <v>3.795712883657582</v>
       </c>
       <c r="N8" t="n">
-        <v>6.395059595604091</v>
+        <v>4.156639628272785</v>
       </c>
       <c r="O8" t="n">
-        <v>6.357434102317401</v>
+        <v>3.960605993625845</v>
       </c>
       <c r="P8" t="n">
-        <v>6.938080721994617</v>
+        <v>4.476530481180413</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.869110631100074</v>
+        <v>4.314405242305314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.830195605079627</v>
+        <v>3.082760029298113</v>
       </c>
       <c r="B9" t="n">
-        <v>4.77629451406667</v>
+        <v>3.039521082343937</v>
       </c>
       <c r="C9" t="n">
-        <v>4.775049592518734</v>
+        <v>3.035278735025183</v>
       </c>
       <c r="D9" t="n">
-        <v>4.799371371505039</v>
+        <v>3.052720272673281</v>
       </c>
       <c r="E9" t="n">
-        <v>4.794891689879204</v>
+        <v>3.033338186982149</v>
       </c>
       <c r="F9" t="n">
-        <v>5.104710686729325</v>
+        <v>3.34912007296728</v>
       </c>
       <c r="G9" t="n">
-        <v>5.085338054733733</v>
+        <v>3.250287629963283</v>
       </c>
       <c r="H9" t="n">
-        <v>5.463072641831011</v>
+        <v>3.711995265147847</v>
       </c>
       <c r="I9" t="n">
-        <v>5.445369486158482</v>
+        <v>3.502679495187102</v>
       </c>
       <c r="J9" t="n">
-        <v>5.579896463126385</v>
+        <v>3.97751613648339</v>
       </c>
       <c r="K9" t="n">
-        <v>5.690370525838635</v>
+        <v>3.718636636632531</v>
       </c>
       <c r="L9" t="n">
-        <v>5.797323598314296</v>
+        <v>3.846155891148532</v>
       </c>
       <c r="M9" t="n">
-        <v>5.78248933111515</v>
+        <v>3.771033560588918</v>
       </c>
       <c r="N9" t="n">
-        <v>6.396432662034788</v>
+        <v>4.141281741552999</v>
       </c>
       <c r="O9" t="n">
-        <v>6.356392176635146</v>
+        <v>3.943902757487779</v>
       </c>
       <c r="P9" t="n">
-        <v>6.940456192788587</v>
+        <v>4.499859593586287</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.873689116023365</v>
+        <v>4.289165053151252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.830339318966835</v>
+        <v>2.964254433587918</v>
       </c>
       <c r="B10" t="n">
-        <v>4.775920259152067</v>
+        <v>2.935350992867415</v>
       </c>
       <c r="C10" t="n">
-        <v>4.774798692023984</v>
+        <v>2.922178235555097</v>
       </c>
       <c r="D10" t="n">
-        <v>4.798628849754467</v>
+        <v>3.001244858379414</v>
       </c>
       <c r="E10" t="n">
-        <v>4.794522824235371</v>
+        <v>2.969529795365153</v>
       </c>
       <c r="F10" t="n">
-        <v>5.10393044008336</v>
+        <v>3.333217423034536</v>
       </c>
       <c r="G10" t="n">
-        <v>5.085359611816815</v>
+        <v>3.237333324826155</v>
       </c>
       <c r="H10" t="n">
-        <v>5.465070863671061</v>
+        <v>3.690997119484757</v>
       </c>
       <c r="I10" t="n">
-        <v>5.447479086261117</v>
+        <v>3.478930188958853</v>
       </c>
       <c r="J10" t="n">
-        <v>5.618278250744505</v>
+        <v>3.962622802442137</v>
       </c>
       <c r="K10" t="n">
-        <v>5.705084432657245</v>
+        <v>3.671655139060837</v>
       </c>
       <c r="L10" t="n">
-        <v>5.796979283792861</v>
+        <v>3.864893254286459</v>
       </c>
       <c r="M10" t="n">
-        <v>5.783012090379867</v>
+        <v>3.790792696557396</v>
       </c>
       <c r="N10" t="n">
-        <v>6.397891357989946</v>
+        <v>4.162801559517622</v>
       </c>
       <c r="O10" t="n">
-        <v>6.359998197588332</v>
+        <v>3.965309855345314</v>
       </c>
       <c r="P10" t="n">
-        <v>6.942661602149361</v>
+        <v>4.506938173249133</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.882660455432303</v>
+        <v>4.308065875635845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.82798420764022</v>
+        <v>2.979134399206766</v>
       </c>
       <c r="B11" t="n">
-        <v>4.773863952949271</v>
+        <v>2.950580968091019</v>
       </c>
       <c r="C11" t="n">
-        <v>4.772048367507548</v>
+        <v>2.937829923739987</v>
       </c>
       <c r="D11" t="n">
-        <v>4.798153995118818</v>
+        <v>3.00777016765141</v>
       </c>
       <c r="E11" t="n">
-        <v>4.792506039351557</v>
+        <v>2.978637033127786</v>
       </c>
       <c r="F11" t="n">
-        <v>5.104316671155231</v>
+        <v>3.330771609390192</v>
       </c>
       <c r="G11" t="n">
-        <v>5.083190130927842</v>
+        <v>3.210813109226923</v>
       </c>
       <c r="H11" t="n">
-        <v>5.466602015377686</v>
+        <v>3.658143309943911</v>
       </c>
       <c r="I11" t="n">
-        <v>5.439969436846654</v>
+        <v>3.472402752892383</v>
       </c>
       <c r="J11" t="n">
-        <v>5.607045214035637</v>
+        <v>3.954158768093799</v>
       </c>
       <c r="K11" t="n">
-        <v>5.66081037566361</v>
+        <v>3.709779145306624</v>
       </c>
       <c r="L11" t="n">
-        <v>5.794451715801596</v>
+        <v>3.846171994020973</v>
       </c>
       <c r="M11" t="n">
-        <v>5.77949469299046</v>
+        <v>3.759858167114851</v>
       </c>
       <c r="N11" t="n">
-        <v>6.396036850037103</v>
+        <v>4.204011544544229</v>
       </c>
       <c r="O11" t="n">
-        <v>6.357172423281111</v>
+        <v>3.980301629587904</v>
       </c>
       <c r="P11" t="n">
-        <v>6.942075369251127</v>
+        <v>4.493331246036472</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.877945442316165</v>
+        <v>4.406965464579644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.826977012814039</v>
+        <v>2.978771932662953</v>
       </c>
       <c r="B12" t="n">
-        <v>4.772936998376782</v>
+        <v>2.950995085357757</v>
       </c>
       <c r="C12" t="n">
-        <v>4.771495667849662</v>
+        <v>2.938405373558916</v>
       </c>
       <c r="D12" t="n">
-        <v>4.796276732467168</v>
+        <v>3.010539557883484</v>
       </c>
       <c r="E12" t="n">
-        <v>4.791456927974941</v>
+        <v>2.979629638491273</v>
       </c>
       <c r="F12" t="n">
-        <v>5.099208840080725</v>
+        <v>3.34568165395945</v>
       </c>
       <c r="G12" t="n">
-        <v>5.079042188858311</v>
+        <v>3.223549569844424</v>
       </c>
       <c r="H12" t="n">
-        <v>5.460045069273836</v>
+        <v>3.705826649691808</v>
       </c>
       <c r="I12" t="n">
-        <v>5.435605325138448</v>
+        <v>3.450429927704939</v>
       </c>
       <c r="J12" t="n">
-        <v>5.625729216988359</v>
+        <v>4.018062257806532</v>
       </c>
       <c r="K12" t="n">
-        <v>5.669178715554139</v>
+        <v>3.675460278201428</v>
       </c>
       <c r="L12" t="n">
-        <v>5.793046912554142</v>
+        <v>3.847401888882129</v>
       </c>
       <c r="M12" t="n">
-        <v>5.778986305114463</v>
+        <v>3.766435127109771</v>
       </c>
       <c r="N12" t="n">
-        <v>6.393624253155605</v>
+        <v>4.18222283899262</v>
       </c>
       <c r="O12" t="n">
-        <v>6.354272396798833</v>
+        <v>4.026925521860295</v>
       </c>
       <c r="P12" t="n">
-        <v>6.941411890138518</v>
+        <v>4.492028128679877</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.874628645560985</v>
+        <v>4.475343122208725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.82679377760785</v>
+        <v>3.120936293922389</v>
       </c>
       <c r="B13" t="n">
-        <v>4.772616636169881</v>
+        <v>3.08470270413562</v>
       </c>
       <c r="C13" t="n">
-        <v>4.771317223106379</v>
+        <v>3.078873464311971</v>
       </c>
       <c r="D13" t="n">
-        <v>4.795564749917626</v>
+        <v>3.097900982981618</v>
       </c>
       <c r="E13" t="n">
-        <v>4.790608417232552</v>
+        <v>3.080096674961925</v>
       </c>
       <c r="F13" t="n">
-        <v>5.097184270694687</v>
+        <v>3.365771658382422</v>
       </c>
       <c r="G13" t="n">
-        <v>5.079165543278164</v>
+        <v>3.28801453329812</v>
       </c>
       <c r="H13" t="n">
-        <v>5.457756425620055</v>
+        <v>3.709215240943406</v>
       </c>
       <c r="I13" t="n">
-        <v>5.437019709311717</v>
+        <v>3.505687390227972</v>
       </c>
       <c r="J13" t="n">
-        <v>5.628642417243631</v>
+        <v>4.058327338431412</v>
       </c>
       <c r="K13" t="n">
-        <v>5.658035500024775</v>
+        <v>3.728662345779866</v>
       </c>
       <c r="L13" t="n">
-        <v>5.793291824970258</v>
+        <v>3.851546403655109</v>
       </c>
       <c r="M13" t="n">
-        <v>5.780537217480579</v>
+        <v>3.803090126030042</v>
       </c>
       <c r="N13" t="n">
-        <v>6.396813503835888</v>
+        <v>4.136663559268027</v>
       </c>
       <c r="O13" t="n">
-        <v>6.360273649205479</v>
+        <v>4.089829114342775</v>
       </c>
       <c r="P13" t="n">
-        <v>6.945816720781433</v>
+        <v>4.509562333801456</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.879785578880286</v>
+        <v>4.492584741176328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.831226752220342</v>
+        <v>3.092011889084934</v>
       </c>
       <c r="B14" t="n">
-        <v>4.776945418214148</v>
+        <v>3.061160304626849</v>
       </c>
       <c r="C14" t="n">
-        <v>4.774686116145672</v>
+        <v>3.047693745849428</v>
       </c>
       <c r="D14" t="n">
-        <v>4.797787524706438</v>
+        <v>3.101625000104441</v>
       </c>
       <c r="E14" t="n">
-        <v>4.79181800911655</v>
+        <v>3.069559319829859</v>
       </c>
       <c r="F14" t="n">
-        <v>5.096557917669608</v>
+        <v>3.385696988147602</v>
       </c>
       <c r="G14" t="n">
-        <v>5.076876899624382</v>
+        <v>3.302637764441257</v>
       </c>
       <c r="H14" t="n">
-        <v>5.450704864221065</v>
+        <v>3.72335325911884</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427660342407318</v>
+        <v>3.51119761088062</v>
       </c>
       <c r="J14" t="n">
-        <v>5.568630491985032</v>
+        <v>4.040529410795138</v>
       </c>
       <c r="K14" t="n">
-        <v>5.62319386449487</v>
+        <v>3.764047344571771</v>
       </c>
       <c r="L14" t="n">
-        <v>5.785834870647771</v>
+        <v>3.880014459164141</v>
       </c>
       <c r="M14" t="n">
-        <v>5.77328266021591</v>
+        <v>3.82282860170935</v>
       </c>
       <c r="N14" t="n">
-        <v>6.383598413099281</v>
+        <v>4.05473730936041</v>
       </c>
       <c r="O14" t="n">
-        <v>6.350461583556377</v>
+        <v>3.980216861636752</v>
       </c>
       <c r="P14" t="n">
-        <v>6.934269908752161</v>
+        <v>4.502206359373729</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.876764593209609</v>
+        <v>4.449136760708202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.826257245762275</v>
+        <v>3.137511922392054</v>
       </c>
       <c r="B15" t="n">
-        <v>4.772668732453994</v>
+        <v>3.103440978756893</v>
       </c>
       <c r="C15" t="n">
-        <v>4.770104038375201</v>
+        <v>3.093583590200734</v>
       </c>
       <c r="D15" t="n">
-        <v>4.796118647191239</v>
+        <v>3.134614316836017</v>
       </c>
       <c r="E15" t="n">
-        <v>4.789587449825515</v>
+        <v>3.114467192790045</v>
       </c>
       <c r="F15" t="n">
-        <v>5.096658517390653</v>
+        <v>3.443455560971286</v>
       </c>
       <c r="G15" t="n">
-        <v>5.076722407195635</v>
+        <v>3.30030284793731</v>
       </c>
       <c r="H15" t="n">
-        <v>5.447688669013295</v>
+        <v>3.763855021585825</v>
       </c>
       <c r="I15" t="n">
-        <v>5.428442385476873</v>
+        <v>3.511928620523886</v>
       </c>
       <c r="J15" t="n">
-        <v>5.559461545981184</v>
+        <v>4.00936488372169</v>
       </c>
       <c r="K15" t="n">
-        <v>5.654553432299307</v>
+        <v>3.780257164392022</v>
       </c>
       <c r="L15" t="n">
-        <v>5.78631152170701</v>
+        <v>3.931143813614417</v>
       </c>
       <c r="M15" t="n">
-        <v>5.773399427749266</v>
+        <v>3.836210696363402</v>
       </c>
       <c r="N15" t="n">
-        <v>6.383791828039148</v>
+        <v>4.19479979002462</v>
       </c>
       <c r="O15" t="n">
-        <v>6.349738223657432</v>
+        <v>3.952176899472426</v>
       </c>
       <c r="P15" t="n">
-        <v>6.935639981143541</v>
+        <v>4.548172768326075</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.880014922291955</v>
+        <v>4.441604566166968</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.82705186379696</v>
+        <v>3.12954100053375</v>
       </c>
       <c r="B16" t="n">
-        <v>4.77353101577724</v>
+        <v>3.10215882551725</v>
       </c>
       <c r="C16" t="n">
-        <v>4.771142371210276</v>
+        <v>3.091813793371131</v>
       </c>
       <c r="D16" t="n">
-        <v>4.795182710500799</v>
+        <v>3.150930476379934</v>
       </c>
       <c r="E16" t="n">
-        <v>4.788983851499243</v>
+        <v>3.12637845715189</v>
       </c>
       <c r="F16" t="n">
-        <v>5.094621373039485</v>
+        <v>3.442560180498009</v>
       </c>
       <c r="G16" t="n">
-        <v>5.07193853117521</v>
+        <v>3.334109157574431</v>
       </c>
       <c r="H16" t="n">
-        <v>5.449401259502519</v>
+        <v>3.727859632780071</v>
       </c>
       <c r="I16" t="n">
-        <v>5.423827972081781</v>
+        <v>3.507900471791376</v>
       </c>
       <c r="J16" t="n">
-        <v>5.552772263339531</v>
+        <v>3.982267699164618</v>
       </c>
       <c r="K16" t="n">
-        <v>5.664609811556662</v>
+        <v>3.745866897758078</v>
       </c>
       <c r="L16" t="n">
-        <v>5.788786993414162</v>
+        <v>3.956108734798072</v>
       </c>
       <c r="M16" t="n">
-        <v>5.775252738086381</v>
+        <v>3.885312304197237</v>
       </c>
       <c r="N16" t="n">
-        <v>6.384202610233417</v>
+        <v>4.193353569782747</v>
       </c>
       <c r="O16" t="n">
-        <v>6.349815469871806</v>
+        <v>3.992561688243376</v>
       </c>
       <c r="P16" t="n">
-        <v>6.938840609173227</v>
+        <v>4.555147135059729</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.88435208764631</v>
+        <v>4.425055674542111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.82979919427408</v>
+        <v>3.089086939028524</v>
       </c>
       <c r="B17" t="n">
-        <v>4.77573043705938</v>
+        <v>3.063367005806833</v>
       </c>
       <c r="C17" t="n">
-        <v>4.773368738846268</v>
+        <v>3.049798360894691</v>
       </c>
       <c r="D17" t="n">
-        <v>4.797786925898575</v>
+        <v>3.132335608471721</v>
       </c>
       <c r="E17" t="n">
-        <v>4.791379681760567</v>
+        <v>3.093828779220732</v>
       </c>
       <c r="F17" t="n">
-        <v>5.098511228919905</v>
+        <v>3.438347912129663</v>
       </c>
       <c r="G17" t="n">
-        <v>5.07582479420845</v>
+        <v>3.336690174581722</v>
       </c>
       <c r="H17" t="n">
-        <v>5.457904929970169</v>
+        <v>3.724152630013035</v>
       </c>
       <c r="I17" t="n">
-        <v>5.432051999277239</v>
+        <v>3.498246344021311</v>
       </c>
       <c r="J17" t="n">
-        <v>5.561718452818207</v>
+        <v>3.962291022504296</v>
       </c>
       <c r="K17" t="n">
-        <v>5.659472638896852</v>
+        <v>3.67875225221838</v>
       </c>
       <c r="L17" t="n">
-        <v>5.791373244576036</v>
+        <v>3.96348081209824</v>
       </c>
       <c r="M17" t="n">
-        <v>5.775650945315519</v>
+        <v>3.89501413292906</v>
       </c>
       <c r="N17" t="n">
-        <v>6.391463754384583</v>
+        <v>4.198408960245882</v>
       </c>
       <c r="O17" t="n">
-        <v>6.34727532691541</v>
+        <v>4.013108953478118</v>
       </c>
       <c r="P17" t="n">
-        <v>6.948890401544086</v>
+        <v>4.573294160817412</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.884757480569808</v>
+        <v>4.341947534562879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.831757894795147</v>
+        <v>3.108102912242459</v>
       </c>
       <c r="B18" t="n">
-        <v>4.776514276552525</v>
+        <v>3.082915285294667</v>
       </c>
       <c r="C18" t="n">
-        <v>4.77396515147818</v>
+        <v>3.068085755087615</v>
       </c>
       <c r="D18" t="n">
-        <v>4.798440225277506</v>
+        <v>3.160453654375997</v>
       </c>
       <c r="E18" t="n">
-        <v>4.791919806453323</v>
+        <v>3.125654131719826</v>
       </c>
       <c r="F18" t="n">
-        <v>5.098430988666214</v>
+        <v>3.457700222698168</v>
       </c>
       <c r="G18" t="n">
-        <v>5.078558352104713</v>
+        <v>3.406160093086756</v>
       </c>
       <c r="H18" t="n">
-        <v>5.459595963376312</v>
+        <v>3.691778564539819</v>
       </c>
       <c r="I18" t="n">
-        <v>5.436798150402272</v>
+        <v>3.56356141760878</v>
       </c>
       <c r="J18" t="n">
-        <v>5.572166452418204</v>
+        <v>3.892761553754009</v>
       </c>
       <c r="K18" t="n">
-        <v>5.653448032983535</v>
+        <v>3.711763444550253</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792681639757489</v>
+        <v>3.98807992463248</v>
       </c>
       <c r="M18" t="n">
-        <v>5.778549774182069</v>
+        <v>3.95415572981598</v>
       </c>
       <c r="N18" t="n">
-        <v>6.395851219599461</v>
+        <v>4.190048834998955</v>
       </c>
       <c r="O18" t="n">
-        <v>6.357326316901996</v>
+        <v>4.102147811760156</v>
       </c>
       <c r="P18" t="n">
-        <v>6.958766539634569</v>
+        <v>4.561701307971005</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.90609659758869</v>
+        <v>4.448214035734552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.838898079757914</v>
+        <v>3.19632447379117</v>
       </c>
       <c r="B19" t="n">
-        <v>4.78698503085133</v>
+        <v>3.170413129066877</v>
       </c>
       <c r="C19" t="n">
-        <v>4.780682578089411</v>
+        <v>3.156734802325468</v>
       </c>
       <c r="D19" t="n">
-        <v>4.821248217985224</v>
+        <v>3.235834542378013</v>
       </c>
       <c r="E19" t="n">
-        <v>4.801913310885024</v>
+        <v>3.202860113207751</v>
       </c>
       <c r="F19" t="n">
-        <v>5.116235941675515</v>
+        <v>3.501057662487288</v>
       </c>
       <c r="G19" t="n">
-        <v>5.086648246338776</v>
+        <v>3.459532304223062</v>
       </c>
       <c r="H19" t="n">
-        <v>5.469578689266474</v>
+        <v>3.650650309186545</v>
       </c>
       <c r="I19" t="n">
-        <v>5.457167198682503</v>
+        <v>3.609235848062714</v>
       </c>
       <c r="J19" t="n">
-        <v>5.596982846699648</v>
+        <v>3.801419073229559</v>
       </c>
       <c r="K19" t="n">
-        <v>5.747434519985887</v>
+        <v>3.725217850216398</v>
       </c>
       <c r="L19" t="n">
-        <v>5.784991150368289</v>
+        <v>4.016111683446695</v>
       </c>
       <c r="M19" t="n">
-        <v>5.764793361136981</v>
+        <v>3.987524527447156</v>
       </c>
       <c r="N19" t="n">
-        <v>6.385451124628533</v>
+        <v>4.273282152024333</v>
       </c>
       <c r="O19" t="n">
-        <v>6.36402997093237</v>
+        <v>4.185707743651082</v>
       </c>
       <c r="P19" t="n">
-        <v>6.928121349611127</v>
+        <v>4.560447106887297</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.908533745592587</v>
+        <v>4.522289375757718</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.840100485947551</v>
+        <v>3.25708243447783</v>
       </c>
       <c r="B20" t="n">
-        <v>4.788497619514191</v>
+        <v>3.230001352793199</v>
       </c>
       <c r="C20" t="n">
-        <v>4.781569412535054</v>
+        <v>3.221103148544517</v>
       </c>
       <c r="D20" t="n">
-        <v>4.818399090171332</v>
+        <v>3.287408396873217</v>
       </c>
       <c r="E20" t="n">
-        <v>4.797824051986104</v>
+        <v>3.265433444891299</v>
       </c>
       <c r="F20" t="n">
-        <v>5.10811371181683</v>
+        <v>3.524207516501837</v>
       </c>
       <c r="G20" t="n">
-        <v>5.07301339128995</v>
+        <v>3.494416898658167</v>
       </c>
       <c r="H20" t="n">
-        <v>5.460229502095753</v>
+        <v>3.653872402813658</v>
       </c>
       <c r="I20" t="n">
-        <v>5.448007234796605</v>
+        <v>3.634432286016182</v>
       </c>
       <c r="J20" t="n">
-        <v>5.605012261339512</v>
+        <v>3.726007802449353</v>
       </c>
       <c r="K20" t="n">
-        <v>5.807894353526282</v>
+        <v>3.70043583335745</v>
       </c>
       <c r="L20" t="n">
-        <v>5.771492224704447</v>
+        <v>4.010540089582102</v>
       </c>
       <c r="M20" t="n">
-        <v>5.7462590601501</v>
+        <v>3.984748756831662</v>
       </c>
       <c r="N20" t="n">
-        <v>6.356293373337691</v>
+        <v>4.291806228059362</v>
       </c>
       <c r="O20" t="n">
-        <v>6.326876937049875</v>
+        <v>4.196598146665722</v>
       </c>
       <c r="P20" t="n">
-        <v>6.888983267661576</v>
+        <v>4.551572905033385</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.858621912565369</v>
+        <v>4.490655130933443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.839032811527171</v>
+        <v>3.356743415843085</v>
       </c>
       <c r="B21" t="n">
-        <v>4.787419765360132</v>
+        <v>3.319349507757217</v>
       </c>
       <c r="C21" t="n">
-        <v>4.780834076478842</v>
+        <v>3.328872381925498</v>
       </c>
       <c r="D21" t="n">
-        <v>4.817054766518077</v>
+        <v>3.345824453016945</v>
       </c>
       <c r="E21" t="n">
-        <v>4.796849192784545</v>
+        <v>3.367223955179933</v>
       </c>
       <c r="F21" t="n">
-        <v>5.104967575302709</v>
+        <v>3.512620132555504</v>
       </c>
       <c r="G21" t="n">
-        <v>5.07281578469504</v>
+        <v>3.556264993426306</v>
       </c>
       <c r="H21" t="n">
-        <v>5.451704274545022</v>
+        <v>3.582372003242146</v>
       </c>
       <c r="I21" t="n">
-        <v>5.452834224983192</v>
+        <v>3.656479549010194</v>
       </c>
       <c r="J21" t="n">
-        <v>5.575291031849243</v>
+        <v>3.567303360570734</v>
       </c>
       <c r="K21" t="n">
-        <v>5.808966818409569</v>
+        <v>3.659734456037753</v>
       </c>
       <c r="L21" t="n">
-        <v>5.780035416491079</v>
+        <v>4.040517257683861</v>
       </c>
       <c r="M21" t="n">
-        <v>5.757337005622357</v>
+        <v>4.049614772957474</v>
       </c>
       <c r="N21" t="n">
-        <v>6.369451577327278</v>
+        <v>4.297301257322914</v>
       </c>
       <c r="O21" t="n">
-        <v>6.342839957071464</v>
+        <v>4.229908609362772</v>
       </c>
       <c r="P21" t="n">
-        <v>6.900330077864483</v>
+        <v>4.532671778721011</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.874119658877125</v>
+        <v>4.479981357127302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.043004434621334</v>
+        <v>3.573529703305335</v>
       </c>
       <c r="B22" t="n">
-        <v>6.935280097617658</v>
+        <v>3.518896910701901</v>
       </c>
       <c r="C22" t="n">
-        <v>6.985157798596664</v>
+        <v>3.544190573545578</v>
       </c>
       <c r="D22" t="n">
-        <v>6.822907215170678</v>
+        <v>3.461964749445002</v>
       </c>
       <c r="E22" t="n">
-        <v>6.958528812912813</v>
+        <v>3.530692112851057</v>
       </c>
       <c r="F22" t="n">
-        <v>7.048312267522204</v>
+        <v>3.57633767966571</v>
       </c>
       <c r="G22" t="n">
-        <v>7.331559165435492</v>
+        <v>3.719961325761641</v>
       </c>
       <c r="H22" t="n">
-        <v>7.327132777709497</v>
+        <v>3.717800806404507</v>
       </c>
       <c r="I22" t="n">
-        <v>7.936048517808321</v>
+        <v>4.026531457227163</v>
       </c>
       <c r="J22" t="n">
-        <v>7.511276974235843</v>
+        <v>3.811053148366018</v>
       </c>
       <c r="K22" t="n">
-        <v>8.389292177668089</v>
+        <v>4.256441889556626</v>
       </c>
       <c r="L22" t="n">
-        <v>7.899799683799507</v>
+        <v>4.008148053455156</v>
       </c>
       <c r="M22" t="n">
-        <v>8.000093414026685</v>
+        <v>4.059073235635991</v>
       </c>
       <c r="N22" t="n">
-        <v>8.390926324327213</v>
+        <v>4.257056836987204</v>
       </c>
       <c r="O22" t="n">
-        <v>8.390345480699748</v>
+        <v>4.257542961438254</v>
       </c>
       <c r="P22" t="n">
-        <v>8.851018549720289</v>
+        <v>4.490704654861894</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.806534311166613</v>
+        <v>4.468340499491354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.907834338008176</v>
+        <v>3.505090368636527</v>
       </c>
       <c r="B23" t="n">
-        <v>6.828757567995756</v>
+        <v>3.464936185152043</v>
       </c>
       <c r="C23" t="n">
-        <v>6.831935441326634</v>
+        <v>3.466591135080085</v>
       </c>
       <c r="D23" t="n">
-        <v>6.764807882227667</v>
+        <v>3.43240321774889</v>
       </c>
       <c r="E23" t="n">
-        <v>6.787268566374633</v>
+        <v>3.443904314605161</v>
       </c>
       <c r="F23" t="n">
-        <v>7.004004677288221</v>
+        <v>3.553709801780476</v>
       </c>
       <c r="G23" t="n">
-        <v>7.113575138934652</v>
+        <v>3.60939140788705</v>
       </c>
       <c r="H23" t="n">
-        <v>7.138611295701952</v>
+        <v>3.622102954626435</v>
       </c>
       <c r="I23" t="n">
-        <v>7.893899031113907</v>
+        <v>4.005251055554682</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4982798495615</v>
+        <v>3.804545764933155</v>
       </c>
       <c r="K23" t="n">
-        <v>8.603198322619413</v>
+        <v>4.365118656522161</v>
       </c>
       <c r="L23" t="n">
-        <v>7.852353741553628</v>
+        <v>3.984099780689511</v>
       </c>
       <c r="M23" t="n">
-        <v>7.826242125863724</v>
+        <v>3.970914262610353</v>
       </c>
       <c r="N23" t="n">
-        <v>8.55049724256464</v>
+        <v>4.338334110752671</v>
       </c>
       <c r="O23" t="n">
-        <v>8.059037664864904</v>
+        <v>4.089067418093537</v>
       </c>
       <c r="P23" t="n">
-        <v>8.863880343817511</v>
+        <v>4.497329011990791</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.748361923664273</v>
+        <v>4.438741293150287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.923769812868052</v>
+        <v>3.512990194793865</v>
       </c>
       <c r="B24" t="n">
-        <v>6.823098833686954</v>
+        <v>3.461910971927604</v>
       </c>
       <c r="C24" t="n">
-        <v>6.852179937571286</v>
+        <v>3.476670925572599</v>
       </c>
       <c r="D24" t="n">
-        <v>6.67403040656509</v>
+        <v>3.386269399688713</v>
       </c>
       <c r="E24" t="n">
-        <v>6.784335006652007</v>
+        <v>3.442240249843662</v>
       </c>
       <c r="F24" t="n">
-        <v>6.851493104952007</v>
+        <v>3.476278683906159</v>
       </c>
       <c r="G24" t="n">
-        <v>7.021818013607609</v>
+        <v>3.562760831403457</v>
       </c>
       <c r="H24" t="n">
-        <v>7.120111126763283</v>
+        <v>3.612650264675775</v>
       </c>
       <c r="I24" t="n">
-        <v>7.717883052524881</v>
+        <v>3.915908977146302</v>
       </c>
       <c r="J24" t="n">
-        <v>7.580077602505053</v>
+        <v>3.846062008363923</v>
       </c>
       <c r="K24" t="n">
-        <v>8.486750552662233</v>
+        <v>4.305897152928599</v>
       </c>
       <c r="L24" t="n">
-        <v>7.700036182965144</v>
+        <v>3.906848832689864</v>
       </c>
       <c r="M24" t="n">
-        <v>7.726858583588862</v>
+        <v>3.920496776653083</v>
       </c>
       <c r="N24" t="n">
-        <v>8.325888005863527</v>
+        <v>4.224329723631413</v>
       </c>
       <c r="O24" t="n">
-        <v>7.965003273233483</v>
+        <v>4.041423575957287</v>
       </c>
       <c r="P24" t="n">
-        <v>8.795904273976154</v>
+        <v>4.462984927179696</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.768517197537284</v>
+        <v>4.449035889884608</v>
       </c>
     </row>
   </sheetData>
